--- a/Goodreads Book Recommender/data/book_recs.xlsx
+++ b/Goodreads Book Recommender/data/book_recs.xlsx
@@ -682,189 +682,189 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A Clash of Kings  (A Song of Ice and Fire, #2)</t>
+          <t>The New Jim Crow: Mass Incarceration in the Age of Colorblindness</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.4</v>
+        <v>4.49</v>
       </c>
       <c r="C7" t="n">
-        <v>534960</v>
+        <v>24694</v>
       </c>
       <c r="D7" t="n">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/10572.A_Clash_of_Kings</t>
+          <t>https://www.goodreads.com/book/show/6792458-the-new-jim-crow</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The New Jim Crow: Mass Incarceration in the Age of Colorblindness</t>
+          <t>Wool Omnibus (Silo, #1)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.49</v>
+        <v>4.24</v>
       </c>
       <c r="C8" t="n">
-        <v>24694</v>
+        <v>83601</v>
       </c>
       <c r="D8" t="n">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6792458-the-new-jim-crow</t>
+          <t>https://www.goodreads.com/book/show/13453029-wool-omnibus</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Wool Omnibus (Silo, #1)</t>
+          <t>A Fighting Chance</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.24</v>
+        <v>4.17</v>
       </c>
       <c r="C9" t="n">
-        <v>83601</v>
+        <v>8740</v>
       </c>
       <c r="D9" t="n">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/13453029-wool-omnibus</t>
+          <t>https://www.goodreads.com/book/show/18779662-a-fighting-chance</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A Fighting Chance</t>
+          <t>All the Ugly and Wonderful Things</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.17</v>
+        <v>4.1</v>
       </c>
       <c r="C10" t="n">
-        <v>8740</v>
+        <v>35002</v>
       </c>
       <c r="D10" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18779662-a-fighting-chance</t>
+          <t>https://www.goodreads.com/book/show/26114135-all-the-ugly-and-wonderful-things</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>All the Ugly and Wonderful Things</t>
+          <t>Talking as Fast as I Can: From Gilmore Girls to Gilmore Girls, and Everything in Between</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.1</v>
+        <v>4.03</v>
       </c>
       <c r="C11" t="n">
-        <v>35002</v>
+        <v>35052</v>
       </c>
       <c r="D11" t="n">
         <v>2016</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26114135-all-the-ugly-and-wonderful-things</t>
+          <t>https://www.goodreads.com/book/show/30253864-talking-as-fast-as-i-can</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Caliban's War (The Expanse, #2)</t>
+          <t>Understanding Comics: The Invisible Art</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.29</v>
+        <v>3.98</v>
       </c>
       <c r="C12" t="n">
-        <v>41459</v>
+        <v>80348</v>
       </c>
       <c r="D12" t="n">
-        <v>2012</v>
+        <v>1994</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/12591698-caliban-s-war</t>
+          <t>https://www.goodreads.com/book/show/102920.Understanding_Comics</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Talking as Fast as I Can: From Gilmore Girls to Gilmore Girls, and Everything in Between</t>
+          <t>Little Brother</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.03</v>
+        <v>3.94</v>
       </c>
       <c r="C13" t="n">
-        <v>35052</v>
+        <v>37544</v>
       </c>
       <c r="D13" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/30253864-talking-as-fast-as-i-can</t>
+          <t>https://www.goodreads.com/book/show/954674.Little_Brother</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Understanding Comics: The Invisible Art</t>
+          <t>Freakonomics: A Rogue Economist Explores the Hidden Side of Everything (Freakonomics, #1)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.98</v>
+        <v>3.94</v>
       </c>
       <c r="C14" t="n">
-        <v>80348</v>
+        <v>529274</v>
       </c>
       <c r="D14" t="n">
-        <v>1994</v>
+        <v>2006</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/102920.Understanding_Comics</t>
+          <t>https://www.goodreads.com/book/show/1202.Freakonomics</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Freakonomics: A Rogue Economist Explores the Hidden Side of Everything (Freakonomics, #1)</t>
+          <t>The Invention of Nature: Alexander von Humboldt's New World</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.94</v>
+        <v>4.29</v>
       </c>
       <c r="C15" t="n">
-        <v>529274</v>
+        <v>4817</v>
       </c>
       <c r="D15" t="n">
-        <v>2006</v>
+        <v>2015</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/1202.Freakonomics</t>
+          <t>https://www.goodreads.com/book/show/23995249-the-invention-of-nature</t>
         </is>
       </c>
     </row>
@@ -955,525 +955,525 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>March: Book One (March, #1)</t>
+          <t>Why the West Rules—for Now: The Patterns of History, and What They Reveal About the Future</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.34</v>
+        <v>4.09</v>
       </c>
       <c r="C20" t="n">
-        <v>21092</v>
+        <v>2505</v>
       </c>
       <c r="D20" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17346698-march</t>
+          <t>https://www.goodreads.com/book/show/9491855-why-the-west-rules-for-now</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Little Brother</t>
+          <t>Adulthood Is a Myth (Sarah's Scribbles, #1)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.94</v>
+        <v>4.15</v>
       </c>
       <c r="C21" t="n">
-        <v>37544</v>
+        <v>43628</v>
       </c>
       <c r="D21" t="n">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/954674.Little_Brother</t>
+          <t>https://www.goodreads.com/book/show/25855506-adulthood-is-a-myth</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Adulthood Is a Myth (Sarah's Scribbles, #1)</t>
+          <t>March: Book One (March, #1)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.15</v>
+        <v>4.34</v>
       </c>
       <c r="C22" t="n">
-        <v>43628</v>
+        <v>21092</v>
       </c>
       <c r="D22" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25855506-adulthood-is-a-myth</t>
+          <t>https://www.goodreads.com/book/show/17346698-march</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The Invention of Nature: Alexander von Humboldt's New World</t>
+          <t>How We Got to Now: Six Innovations That Made the Modern World</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.29</v>
+        <v>4.04</v>
       </c>
       <c r="C23" t="n">
-        <v>4817</v>
+        <v>6729</v>
       </c>
       <c r="D23" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/23995249-the-invention-of-nature</t>
+          <t>https://www.goodreads.com/book/show/20893477-how-we-got-to-now</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mom &amp; Me &amp; Mom</t>
+          <t>Strangers in Their Own Land: Anger and Mourning on the American Right</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.15</v>
+        <v>4.14</v>
       </c>
       <c r="C24" t="n">
-        <v>10192</v>
+        <v>5954</v>
       </c>
       <c r="D24" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/15798797-mom-me-mom</t>
+          <t>https://www.goodreads.com/book/show/28695425-strangers-in-their-own-land</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Difficult Women</t>
+          <t>The Innovators: How a Group of  Hackers, Geniuses and Geeks Created the Digital Revolution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
       <c r="C25" t="n">
-        <v>8907</v>
+        <v>15567</v>
       </c>
       <c r="D25" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/28818921-difficult-women</t>
+          <t>https://www.goodreads.com/book/show/21856367-the-innovators</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Why the West Rules—for Now: The Patterns of History, and What They Reveal About the Future</t>
+          <t>Mom &amp; Me &amp; Mom</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.09</v>
+        <v>4.15</v>
       </c>
       <c r="C26" t="n">
-        <v>2505</v>
+        <v>10192</v>
       </c>
       <c r="D26" t="n">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/9491855-why-the-west-rules-for-now</t>
+          <t>https://www.goodreads.com/book/show/15798797-mom-me-mom</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>How We Got to Now: Six Innovations That Made the Modern World</t>
+          <t>Pandemic: Tracking Contagions, from Cholera to Ebola and Beyond</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.04</v>
+        <v>3.92</v>
       </c>
       <c r="C27" t="n">
-        <v>6729</v>
+        <v>886</v>
       </c>
       <c r="D27" t="n">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/20893477-how-we-got-to-now</t>
+          <t>https://www.goodreads.com/book/show/23847947-pandemic</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Innovators: How a Group of  Hackers, Geniuses and Geeks Created the Digital Revolution</t>
+          <t>Difficult Women</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.04</v>
+        <v>3.98</v>
       </c>
       <c r="C28" t="n">
-        <v>15567</v>
+        <v>8907</v>
       </c>
       <c r="D28" t="n">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/21856367-the-innovators</t>
+          <t>https://www.goodreads.com/book/show/28818921-difficult-women</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Strangers in Their Own Land: Anger and Mourning on the American Right</t>
+          <t>Digital Gold: Bitcoin and the Inside Story of the Misfits and Millionaires Trying to Reinvent Money</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.14</v>
+        <v>4.16</v>
       </c>
       <c r="C29" t="n">
-        <v>5954</v>
+        <v>1674</v>
       </c>
       <c r="D29" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/28695425-strangers-in-their-own-land</t>
+          <t>https://www.goodreads.com/book/show/23546676-digital-gold</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pandemic: Tracking Contagions, from Cholera to Ebola and Beyond</t>
+          <t>Em and The Big Hoom</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.92</v>
+        <v>4.07</v>
       </c>
       <c r="C30" t="n">
-        <v>886</v>
+        <v>2282</v>
       </c>
       <c r="D30" t="n">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/23847947-pandemic</t>
+          <t>https://www.goodreads.com/book/show/13601144-em-and-the-big-hoom</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Em and The Big Hoom</t>
+          <t>Mountains Beyond Mountains: The Quest of Dr. Paul Farmer, A Man Who Would Cure the World</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.07</v>
+        <v>4.21</v>
       </c>
       <c r="C31" t="n">
-        <v>2282</v>
+        <v>53936</v>
       </c>
       <c r="D31" t="n">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/13601144-em-and-the-big-hoom</t>
+          <t>https://www.goodreads.com/book/show/10235.Mountains_Beyond_Mountains</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Digital Gold: Bitcoin and the Inside Story of the Misfits and Millionaires Trying to Reinvent Money</t>
+          <t>An Untamed State</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.16</v>
+        <v>4.05</v>
       </c>
       <c r="C32" t="n">
-        <v>1674</v>
+        <v>11225</v>
       </c>
       <c r="D32" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/23546676-digital-gold</t>
+          <t>https://www.goodreads.com/book/show/18467818-an-untamed-state</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>An Untamed State</t>
+          <t>Asterios Polyp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.05</v>
+        <v>4.19</v>
       </c>
       <c r="C33" t="n">
-        <v>11225</v>
+        <v>20053</v>
       </c>
       <c r="D33" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18467818-an-untamed-state</t>
+          <t>https://www.goodreads.com/book/show/4070095-asterios-polyp</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The Slow Regard of Silent Things (The Kingkiller Chronicle #2.5)</t>
+          <t>NeuroTribes: The Legacy of Autism and the Future of Neurodiversity</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.91</v>
+        <v>4.29</v>
       </c>
       <c r="C34" t="n">
-        <v>60529</v>
+        <v>3998</v>
       </c>
       <c r="D34" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/21535271-the-slow-regard-of-silent-things</t>
+          <t>https://www.goodreads.com/book/show/22514020-neurotribes</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Persepolis 2: The Story of a Return (Persepolis, #2)</t>
+          <t>The Quest: Energy, Security, and the Remaking of the Modern World</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.23</v>
+        <v>4.07</v>
       </c>
       <c r="C35" t="n">
-        <v>46987</v>
+        <v>2378</v>
       </c>
       <c r="D35" t="n">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/9517.Persepolis_2</t>
+          <t>https://www.goodreads.com/book/show/11447065-the-quest</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Asterios Polyp</t>
+          <t>The Girl with Seven Names: A North Korean Defector’s Story</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.19</v>
+        <v>4.45</v>
       </c>
       <c r="C36" t="n">
-        <v>20053</v>
+        <v>8293</v>
       </c>
       <c r="D36" t="n">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/4070095-asterios-polyp</t>
+          <t>https://www.goodreads.com/book/show/25362017-the-girl-with-seven-names</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>The Girl with Seven Names: A North Korean Defector’s Story</t>
+          <t>Animal, Vegetable, Miracle: A Year of Food Life</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.45</v>
+        <v>4.03</v>
       </c>
       <c r="C37" t="n">
-        <v>8293</v>
+        <v>84521</v>
       </c>
       <c r="D37" t="n">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25362017-the-girl-with-seven-names</t>
+          <t>https://www.goodreads.com/book/show/25460.Animal_Vegetable_Miracle</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mountains Beyond Mountains: The Quest of Dr. Paul Farmer, A Man Who Would Cure the World</t>
+          <t>The Signal and the Noise: Why So Many Predictions Fail - But Some Don't</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.21</v>
+        <v>3.97</v>
       </c>
       <c r="C38" t="n">
-        <v>53936</v>
+        <v>27729</v>
       </c>
       <c r="D38" t="n">
-        <v>2003</v>
+        <v>2012</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/10235.Mountains_Beyond_Mountains</t>
+          <t>https://www.goodreads.com/book/show/13588394-the-signal-and-the-noise</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Animal, Vegetable, Miracle: A Year of Food Life</t>
+          <t>The Lean Startup: How Today's Entrepreneurs Use Continuous Innovation to Create Radically Successful Businesses</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.03</v>
+        <v>4.04</v>
       </c>
       <c r="C39" t="n">
-        <v>84521</v>
+        <v>95622</v>
       </c>
       <c r="D39" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25460.Animal_Vegetable_Miracle</t>
+          <t>https://www.goodreads.com/book/show/10127019-the-lean-startup</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Into Thin Air: A Personal Account of the Mount Everest Disaster</t>
+          <t>The Eagle Has Landed (Liam Devlin, #1)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.12</v>
+        <v>4.15</v>
       </c>
       <c r="C40" t="n">
-        <v>294556</v>
+        <v>42409</v>
       </c>
       <c r="D40" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/1898.Into_Thin_Air</t>
+          <t>https://www.goodreads.com/book/show/295961.The_Eagle_Has_Landed</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NeuroTribes: The Legacy of Autism and the Future of Neurodiversity</t>
+          <t>Into Thin Air: A Personal Account of the Mount Everest Disaster</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.29</v>
+        <v>4.12</v>
       </c>
       <c r="C41" t="n">
-        <v>3998</v>
+        <v>294556</v>
       </c>
       <c r="D41" t="n">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/22514020-neurotribes</t>
+          <t>https://www.goodreads.com/book/show/1898.Into_Thin_Air</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Quest: Energy, Security, and the Remaking of the Modern World</t>
+          <t>Word by Word: The Secret Life of Dictionaries</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.07</v>
+        <v>4.21</v>
       </c>
       <c r="C42" t="n">
-        <v>2378</v>
+        <v>1422</v>
       </c>
       <c r="D42" t="n">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/11447065-the-quest</t>
+          <t>https://www.goodreads.com/book/show/30781490-word-by-word</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A Long Way Home</t>
+          <t>The Late Show (Renée Ballard, #1)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="C43" t="n">
-        <v>14612</v>
+        <v>11209</v>
       </c>
       <c r="D43" t="n">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18111281-a-long-way-home</t>
+          <t>https://www.goodreads.com/book/show/34091380-the-late-show</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Smoke Gets in Your Eyes: And Other Lessons from the Crematory</t>
+          <t>Saving Capitalism: For the Many, Not the Few</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.06</v>
+        <v>4.26</v>
       </c>
       <c r="C44" t="n">
-        <v>9895</v>
+        <v>1818</v>
       </c>
       <c r="D44" t="n">
         <v>2015</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25189315-smoke-gets-in-your-eyes</t>
+          <t>https://www.goodreads.com/book/show/24338377-saving-capitalism</t>
         </is>
       </c>
     </row>
@@ -1501,126 +1501,126 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>The Industries of the Future</t>
+          <t>The Looting Machine: Warlords, Oligarchs, Corporations, Smugglers, and the Theft of Africa's Wealth</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.05</v>
+        <v>4.01</v>
       </c>
       <c r="C46" t="n">
-        <v>2765</v>
+        <v>383</v>
       </c>
       <c r="D46" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25111341-the-industries-of-the-future</t>
+          <t>https://www.goodreads.com/book/show/22715974-the-looting-machine</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rich Dad, Poor Dad</t>
+          <t>My Promised Land: The Triumph and Tragedy of Israel</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3.96</v>
+        <v>4.22</v>
       </c>
       <c r="C47" t="n">
-        <v>164543</v>
+        <v>4226</v>
       </c>
       <c r="D47" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/69571.Rich_Dad_Poor_Dad</t>
+          <t>https://www.goodreads.com/book/show/15798334-my-promised-land</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>The Lean Startup: How Today's Entrepreneurs Use Continuous Innovation to Create Radically Successful Businesses</t>
+          <t>Future Crimes: Everything Is Connected, Everyone Is Vulnerable, and What We Can Do About It</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.04</v>
+        <v>3.94</v>
       </c>
       <c r="C48" t="n">
-        <v>95622</v>
+        <v>1864</v>
       </c>
       <c r="D48" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/10127019-the-lean-startup</t>
+          <t>https://www.goodreads.com/book/show/22318398-future-crimes</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Palestine</t>
+          <t>The Black Echo (Harry Bosch, #1; Harry Bosch Universe, #1)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.2</v>
+        <v>4.09</v>
       </c>
       <c r="C49" t="n">
-        <v>10082</v>
+        <v>103341</v>
       </c>
       <c r="D49" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/769712.Palestine</t>
+          <t>https://www.goodreads.com/book/show/32508.The_Black_Echo</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>The Underground Girls of Kabul</t>
+          <t>A Long Way Home</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.08</v>
+        <v>4.12</v>
       </c>
       <c r="C50" t="n">
-        <v>5473</v>
+        <v>14612</v>
       </c>
       <c r="D50" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18077802-the-underground-girls-of-kabul</t>
+          <t>https://www.goodreads.com/book/show/18111281-a-long-way-home</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>To Say Nothing of the Dog (Oxford Time Travel, #2)</t>
+          <t>A Spy Among Friends: Kim Philby and the Great Betrayal</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.13</v>
+        <v>4.12</v>
       </c>
       <c r="C51" t="n">
-        <v>23617</v>
+        <v>1785</v>
       </c>
       <c r="D51" t="n">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/77773.To_Say_Nothing_of_the_Dog</t>
+          <t>https://www.goodreads.com/book/show/20543546-a-spy-among-friends</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1668,846 +1668,450 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blackwing (Ravens' Mark #1)</t>
+          <t>The Sword of Summer (Magnus Chase and The Gods of Asgard, #1)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.24</v>
+        <v>4.26</v>
       </c>
       <c r="C2" t="n">
-        <v>401</v>
+        <v>921</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/33916060-blackwing</t>
+          <t>https://www.goodreads.com/book/show/25909686-the-sword-of-summer</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Everwild (Skinjacker, #2)</t>
+          <t>Legend (The Drenai Saga, #1)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.21</v>
+        <v>4.25</v>
       </c>
       <c r="C3" t="n">
-        <v>9779</v>
+        <v>18805</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6390465-everwild</t>
+          <t>https://www.goodreads.com/book/show/618177.Legend</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legend (The Drenai Saga, #1)</t>
+          <t>Lost Boy: The True Story of Captain Hook</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="C4" t="n">
-        <v>18805</v>
+        <v>1420</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/618177.Legend</t>
+          <t>https://www.goodreads.com/book/show/32828538-lost-boy</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Asterix the Gaul (Asterix, #1)</t>
+          <t>The Last Namsara (Iskari, #1)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.16</v>
+        <v>4.25</v>
       </c>
       <c r="C5" t="n">
-        <v>17151</v>
+        <v>865</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/71292.Asterix_the_Gaul</t>
+          <t>https://www.goodreads.com/book/show/32667458-the-last-namsara</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Mara, Daughter of the Nile</t>
+          <t>Everwild (Skinjacker, #2)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.23</v>
+        <v>4.21</v>
       </c>
       <c r="C6" t="n">
-        <v>7903</v>
+        <v>9779</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/406186.Mara_Daughter_of_the_Nile</t>
+          <t>https://www.goodreads.com/book/show/6390465-everwild</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Avatar: The Last Airbender: The Search, Part 2 (The Search, #2)</t>
+          <t>When Christ and His Saints Slept  (Henry II and Eleanor of Aquitaine, #1)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.35</v>
+        <v>4.27</v>
       </c>
       <c r="C7" t="n">
-        <v>4658</v>
+        <v>10892</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17445144-avatar</t>
+          <t>https://www.goodreads.com/book/show/43841.When_Christ_and_His_Saints_Slept</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Assassin's Blade (Throne of Glass, #0.1-0.5)</t>
+          <t>Rebel Spring (Falling Kingdoms, #2)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.48</v>
+        <v>4.16</v>
       </c>
       <c r="C8" t="n">
-        <v>2010</v>
+        <v>521</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18594430-the-assassin-s-blade</t>
+          <t>https://www.goodreads.com/book/show/18668021-rebel-spring</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Villains by Necessity</t>
+          <t>The Cartel</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.19</v>
+        <v>4.29</v>
       </c>
       <c r="C9" t="n">
-        <v>1116</v>
+        <v>9961</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/401454.Villains_by_Necessity</t>
+          <t>https://www.goodreads.com/book/show/23602561-the-cartel</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Scythe (Arc of a Scythe, #1)</t>
+          <t>The Hammer of Thor (Magnus Chase and the Gods of Asgard, #2)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="C10" t="n">
-        <v>13000</v>
+        <v>26454</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/28954189-scythe</t>
+          <t>https://www.goodreads.com/book/show/27904311-the-hammer-of-thor</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dawn of Wonder (The Wakening, #1)</t>
+          <t>Time and Chance (Henry II &amp; Eleanor of Aquitaine, #2)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.35</v>
+        <v>4.28</v>
       </c>
       <c r="C11" t="n">
-        <v>13351</v>
+        <v>6106</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25451852-dawn-of-wonder</t>
+          <t>https://www.goodreads.com/book/show/234560.Time_and_Chance</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The Wall of Storms (The Dandelion Dynasty, #2)</t>
+          <t>Blackwing (Ravens' Mark #1)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.33</v>
+        <v>4.24</v>
       </c>
       <c r="C12" t="n">
-        <v>1078</v>
+        <v>401</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18952381-the-wall-of-storms</t>
+          <t>https://www.goodreads.com/book/show/33916060-blackwing</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The False Prince (The Ascendance Trilogy #1)</t>
+          <t>Villains by Necessity</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="C13" t="n">
-        <v>51292</v>
+        <v>1116</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/12432220-the-false-prince</t>
+          <t>https://www.goodreads.com/book/show/401454.Villains_by_Necessity</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Shadow of What Was Lost (The Licanius Trilogy, #1)</t>
+          <t>The False Prince (The Ascendance Trilogy #1)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.16</v>
+        <v>4.23</v>
       </c>
       <c r="C14" t="n">
-        <v>6120</v>
+        <v>51292</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/22878967-the-shadow-of-what-was-lost</t>
+          <t>https://www.goodreads.com/book/show/12432220-the-false-prince</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>When Christ and His Saints Slept  (Henry II and Eleanor of Aquitaine, #1)</t>
+          <t>A Clash of Kings  (A Song of Ice and Fire, #2)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.27</v>
+        <v>4.4</v>
       </c>
       <c r="C15" t="n">
-        <v>10892</v>
+        <v>534960</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/43841.When_Christ_and_His_Saints_Slept</t>
+          <t>https://www.goodreads.com/book/show/10572.A_Clash_of_Kings</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The Hammer of Thor (Magnus Chase and the Gods of Asgard, #2)</t>
+          <t>The Final Empire (Mistborn, #1)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.37</v>
+        <v>4.43</v>
       </c>
       <c r="C16" t="n">
-        <v>26454</v>
+        <v>2140</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/27904311-the-hammer-of-thor</t>
+          <t>https://www.goodreads.com/book/show/12968705-the-final-empire</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blood for Blood (Wolf By Wolf, #2)</t>
+          <t>Thrawn (Star Wars: Thrawn, #1)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="C17" t="n">
-        <v>3402</v>
+        <v>5220</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26864835-blood-for-blood</t>
+          <t>https://www.goodreads.com/book/show/31140332-thrawn</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Free the Darkness (King's Dark Tidings, #1)</t>
+          <t>Age of Myth (The Legends of the First Empire, #1)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.3</v>
+        <v>4.27</v>
       </c>
       <c r="C18" t="n">
-        <v>6591</v>
+        <v>9328</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/28385685-free-the-darkness</t>
+          <t>https://www.goodreads.com/book/show/26863057-age-of-myth</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Cartel</t>
+          <t>Dawn of Wonder (The Wakening, #1)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.29</v>
+        <v>4.35</v>
       </c>
       <c r="C19" t="n">
-        <v>9961</v>
+        <v>13351</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/23602561-the-cartel</t>
+          <t>https://www.goodreads.com/book/show/25451852-dawn-of-wonder</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The Sword of Summer (Magnus Chase and The Gods of Asgard, #1)</t>
+          <t>The Stonekeeper's Curse (Amulet, #2)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="C20" t="n">
-        <v>921</v>
+        <v>22479</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25909686-the-sword-of-summer</t>
+          <t>https://www.goodreads.com/book/show/6277410-the-stonekeeper-s-curse</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Avatar: The Last Airbender: The Promise, Part 2 (The Promise, #2)</t>
+          <t>Split the Party (Spells, Swords, &amp; Stealth, #2)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.43</v>
+        <v>4.25</v>
       </c>
       <c r="C21" t="n">
-        <v>12655</v>
+        <v>2062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/13096848-avatar</t>
+          <t>https://www.goodreads.com/book/show/25920141-split-the-party</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>The Stonekeeper's Curse (Amulet, #2)</t>
+          <t>The Shadow of What Was Lost (The Licanius Trilogy, #1)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.33</v>
+        <v>4.16</v>
       </c>
       <c r="C22" t="n">
-        <v>22479</v>
+        <v>6120</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6277410-the-stonekeeper-s-curse</t>
+          <t>https://www.goodreads.com/book/show/22878967-the-shadow-of-what-was-lost</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>The Last Namsara (Iskari, #1)</t>
+          <t>The Assassin's Blade (Throne of Glass, #0.1-#0.5)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.25</v>
+        <v>4.48</v>
       </c>
       <c r="C23" t="n">
-        <v>865</v>
+        <v>1583</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/32667458-the-last-namsara</t>
+          <t>https://www.goodreads.com/book/show/22529351-the-assassin-s-blade</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>The Broken God (A Requiem for Homo Sapiens, #1)</t>
+          <t>Rogue One: A Star Wars Story</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.24</v>
+        <v>4.17</v>
       </c>
       <c r="C24" t="n">
-        <v>528</v>
+        <v>3228</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/2031004.The_Broken_God</t>
+          <t>https://www.goodreads.com/book/show/30008713-rogue-one</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Time and Chance (Henry II &amp; Eleanor of Aquitaine, #2)</t>
+          <t>The Vision, Volume 1: Little Worse Than A Man</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.28</v>
+        <v>4.26</v>
       </c>
       <c r="C25" t="n">
-        <v>6106</v>
+        <v>5053</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/234560.Time_and_Chance</t>
+          <t>https://www.goodreads.com/book/show/27163019-the-vision-volume-1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>The Vision, Volume 1: Little Worse Than A Man</t>
+          <t>Traitor to the Throne (Rebel of the Sands, #2)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.26</v>
+        <v>4.35</v>
       </c>
       <c r="C26" t="n">
-        <v>5053</v>
+        <v>4825</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/27163019-the-vision-volume-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>The Buried Pyramid (Imhotep #2)</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C27" t="n">
-        <v>484</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/19014461-the-buried-pyramid</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Lost Boy: The True Story of Captain Hook</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1420</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/32828538-lost-boy</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>The Hero and the Crown (Damar, #2)</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C29" t="n">
-        <v>42195</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/77366.The_Hero_and_the_Crown</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>The Wrath &amp; the Dawn (The Wrath &amp; the Dawn, #1)</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C30" t="n">
-        <v>403</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/32370233-the-wrath-the-dawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Rebel Spring (Falling Kingdoms, #2)</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>521</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18668021-rebel-spring</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Age of Myth (The Legends of the First Empire, #1)</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C32" t="n">
-        <v>9328</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/26863057-age-of-myth</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Lady Midnight (The Dark Artifices, #1)</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1262</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/24851136-lady-midnight</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>A Clash of Kings  (A Song of Ice and Fire, #2)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C34" t="n">
-        <v>534960</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/10572.A_Clash_of_Kings</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Rogue One: A Star Wars Story</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C35" t="n">
-        <v>3228</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/30008713-rogue-one</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Now I Rise (The Conqueror's Saga, #2)</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3568</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22817331-now-i-rise</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Traitor to the Throne (Rebel of the Sands, #2)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4825</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>https://www.goodreads.com/book/show/29739361-traitor-to-the-throne</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>The Final Empire (Mistborn, #1)</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C38" t="n">
-        <v>2140</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12968705-the-final-empire</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>The Last Unicorn (The Last Unicorn, #1)</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C39" t="n">
-        <v>77163</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29127.The_Last_Unicorn</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Thrawn (Star Wars: Thrawn, #1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C40" t="n">
-        <v>5220</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/31140332-thrawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Split the Party (Spells, Swords, &amp; Stealth, #2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2062</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25920141-split-the-party</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>The Inquisition (Summoner, #2)</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="C42" t="n">
-        <v>5366</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25689056-the-inquisition</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>The Assassin's Blade (Throne of Glass, #0.1-#0.5)</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1583</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22529351-the-assassin-s-blade</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Son of the Black Sword (Saga of the Forgotten Warrior, #1)</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2428</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25110977-son-of-the-black-sword</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Bleach, Volume 01</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C45" t="n">
-        <v>123807</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/2880.Bleach_Volume_01</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Sweet Tooth, Volume 6: Wild Game</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3107</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17137619-sweet-tooth-volume-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>A Symphony of Echoes (The Chronicles of St. Mary's, #2)</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2792</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25876967-a-symphony-of-echoes</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>A Crown of Wishes (The Star-Touched Queen, #2)</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2957</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29939047-a-crown-of-wishes</t>
         </is>
       </c>
     </row>
@@ -2522,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2555,684 +2159,306 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A Good Man is Hard to Find and Other Stories</t>
+          <t>Y: The Last Man - The Deluxe Edition Book One</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.24</v>
+        <v>4.36</v>
       </c>
       <c r="C2" t="n">
-        <v>26384</v>
+        <v>10549</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/48464.A_Good_Man_is_Hard_to_Find_and_Other_Stories</t>
+          <t>https://www.goodreads.com/book/show/3710603-y</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Y: The Last Man - The Deluxe Edition Book One</t>
+          <t>Walt Disney Imagineering: A Behind the Dreams Look At Making the Magic Real</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.36</v>
+        <v>4.23</v>
       </c>
       <c r="C3" t="n">
-        <v>10549</v>
+        <v>1279</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/3710603-y</t>
+          <t>https://www.goodreads.com/book/show/380248.Walt_Disney_Imagineering</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Private Eye</t>
+          <t>A Good Man is Hard to Find and Other Stories</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>4.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1847</v>
+        <v>26384</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26247784-the-private-eye</t>
+          <t>https://www.goodreads.com/book/show/48464.A_Good_Man_is_Hard_to_Find_and_Other_Stories</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Groot</t>
+          <t>Calvin and Hobbes</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.35</v>
+        <v>4.61</v>
       </c>
       <c r="C5" t="n">
-        <v>979</v>
+        <v>120371</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26030887-groot</t>
+          <t>https://www.goodreads.com/book/show/77727.Calvin_and_Hobbes</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Clown of God</t>
+          <t>A History of the English Speaking Peoples, 4 Vols</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.21</v>
+        <v>4.31</v>
       </c>
       <c r="C6" t="n">
-        <v>2353</v>
+        <v>767</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/69086.The_Clown_of_God</t>
+          <t>https://www.goodreads.com/book/show/1644043.A_History_of_the_English_Speaking_Peoples_4_Vols</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Preacher, Book 4</t>
+          <t>The Paper Menagerie</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.27</v>
+        <v>4.37</v>
       </c>
       <c r="C7" t="n">
-        <v>1535</v>
+        <v>2476</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/9785203-preacher-book-4</t>
+          <t>https://www.goodreads.com/book/show/13501210-the-paper-menagerie</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Guild (The Guild, #1)</t>
+          <t>Adventure Time With Fionna and Cake</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.22</v>
+        <v>4.41</v>
       </c>
       <c r="C8" t="n">
-        <v>4861</v>
+        <v>2542</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/8693600-the-guild</t>
+          <t>https://www.goodreads.com/book/show/17348705-adventure-time-with-fionna-and-cake</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A History of the English Speaking Peoples, 4 Vols</t>
+          <t>Saga: Book One</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.31</v>
+        <v>4.7</v>
       </c>
       <c r="C9" t="n">
-        <v>767</v>
+        <v>4201</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/1644043.A_History_of_the_English_Speaking_Peoples_4_Vols</t>
+          <t>https://www.goodreads.com/book/show/22078240-saga</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The Glory of Their Times: The Story of the Early Days of Baseball Told By the Men Who Played It</t>
+          <t>The Complete Clive Barker's The Great And Secret Show</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.32</v>
+        <v>4.21</v>
       </c>
       <c r="C10" t="n">
-        <v>3025</v>
+        <v>15868</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/461749.The_Glory_of_Their_Times</t>
+          <t>https://www.goodreads.com/book/show/34871.The_Complete_Clive_Barker_s_The_Great_And_Secret_Show</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Julian Chapter</t>
+          <t>Harry Potter: The Prequel (Harry Potter, #0.5)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.32</v>
+        <v>4.22</v>
       </c>
       <c r="C11" t="n">
-        <v>11380</v>
+        <v>13267</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/20878809-the-julian-chapter</t>
+          <t>https://www.goodreads.com/book/show/8933944-harry-potter</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Walt Disney Imagineering: A Behind the Dreams Look At Making the Magic Real</t>
+          <t>The Mysteries of Harris Burdick</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.23</v>
+        <v>4.53</v>
       </c>
       <c r="C12" t="n">
-        <v>1279</v>
+        <v>652</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/380248.Walt_Disney_Imagineering</t>
+          <t>https://www.goodreads.com/book/show/402114.The_Mysteries_of_Harris_Burdick</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Calvin and Hobbes</t>
+          <t>Tales of the Peculiar (Miss Peregrine's Peculiar Children #0.5)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.61</v>
+        <v>4.17</v>
       </c>
       <c r="C13" t="n">
-        <v>120371</v>
+        <v>10785</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/77727.Calvin_and_Hobbes</t>
+          <t>https://www.goodreads.com/book/show/29358487-tales-of-the-peculiar</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Paper Menagerie</t>
+          <t>Make Way for Ducklings</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.37</v>
+        <v>4.22</v>
       </c>
       <c r="C14" t="n">
-        <v>2476</v>
+        <v>71133</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/13501210-the-paper-menagerie</t>
+          <t>https://www.goodreads.com/book/show/29291.Make_Way_for_Ducklings</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>The Lord of the Rings: The Two Towers: Visual Companion</t>
+          <t>The Kite Runner: Graphic Novel</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.51</v>
+        <v>4.25</v>
       </c>
       <c r="C15" t="n">
-        <v>4463</v>
+        <v>6466</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/15221.The_Lord_of_the_Rings</t>
+          <t>https://www.goodreads.com/book/show/11296523-the-kite-runner</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>The Complete Clive Barker's The Great And Secret Show</t>
+          <t>Nimona</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="C16" t="n">
-        <v>15868</v>
+        <v>3222</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/34871.The_Complete_Clive_Barker_s_The_Great_And_Secret_Show</t>
+          <t>https://www.goodreads.com/book/show/23131088-nimona</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Make Way for Ducklings</t>
+          <t>The Complete Tales</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.22</v>
+        <v>4.36</v>
       </c>
       <c r="C17" t="n">
-        <v>71133</v>
+        <v>57602</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/29291.Make_Way_for_Ducklings</t>
+          <t>https://www.goodreads.com/book/show/19330.The_Complete_Tales</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Harry Potter: The Prequel (Harry Potter, #0.5)</t>
+          <t>The Glory of Their Times: The Story of the Early Days of Baseball Told By the Men Who Played It</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.22</v>
+        <v>4.32</v>
       </c>
       <c r="C18" t="n">
-        <v>13267</v>
+        <v>3025</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/8933944-harry-potter</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Saga: Book One</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4201</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22078240-saga</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Adventure Time With Fionna and Cake</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2542</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17348705-adventure-time-with-fionna-and-cake</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The Mysteries of Harris Burdick</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C21" t="n">
-        <v>652</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/402114.The_Mysteries_of_Harris_Burdick</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>The Hedge Knight (The Tales of Dunk and Egg, #1)</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C22" t="n">
-        <v>14640</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/11970747-the-hedge-knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>The Dark Tower</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>96576</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/5091.The_Dark_Tower</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Avatar: The Last Airbender: The Promise (Avatar: The Last Airbender, Library Edition, #1)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5091</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/16231346-avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Ms. Marvel, #1: Meta Morphosis</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C25" t="n">
-        <v>4702</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18757876-ms-marvel-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Complete Tales</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C26" t="n">
-        <v>57602</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/19330.The_Complete_Tales</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Nimona</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3222</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23131088-nimona</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Tales of the Peculiar (Miss Peregrine's Peculiar Children #0.5)</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C28" t="n">
-        <v>10785</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29358487-tales-of-the-peculiar</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>La sombra del viento</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C29" t="n">
-        <v>778</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/53883.La_sombra_del_viento</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Batman: Earth One, Volume 2</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2332</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23012543-batman</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>The Essential Calvin and Hobbes: A Calvin and Hobbes Treasury</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="C31" t="n">
-        <v>95116</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/43070.The_Essential_Calvin_and_Hobbes</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Astonishing X-Men: Omnibus</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="C32" t="n">
-        <v>4572</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6394175-astonishing-x-men</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>The Kite Runner: Graphic Novel</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C33" t="n">
-        <v>6466</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/11296523-the-kite-runner</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Heartbreak Soup (Luba and Palomar, #1)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C34" t="n">
-        <v>1394</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/405552.Heartbreak_Soup</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>At the Mountains of Madness and Other Tales of Terror</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19861</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/32769.At_the_Mountains_of_Madness_and_Other_Tales_of_Terror</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Hawkeye, Volume 2: Little Hits</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C36" t="n">
-        <v>16304</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17277800-hawkeye-volume-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Batman, Volume 3: Death of the Family</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C37" t="n">
-        <v>8461</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17671913-batman-volume-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Harry Potter's Bookshelf: The Great Books behind the Hogwarts Adventures</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1456</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6075580-harry-potter-s-bookshelf</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>The Demigod Diaries (The Heroes of Olympus, #2.5)</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C39" t="n">
-        <v>29303</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12959086-the-demigod-diaries</t>
+          <t>https://www.goodreads.com/book/show/461749.The_Glory_of_Their_Times</t>
         </is>
       </c>
     </row>
@@ -3242,6 +2468,682 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>avg_rating</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>ratings_count</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Shadows for Silence in the Forests of Hell</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5683</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/21411388-shadows-for-silence-in-the-forests-of-hell</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Harrison Bergeron</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10690</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/10176119-harrison-bergeron</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The Cartel (The Cartel, #1)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5703</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/5953477-the-cartel</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>avg_rating</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>ratings_count</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>All Who Go Do Not Return: A Memoir</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/22244929-all-who-go-do-not-return</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>The Chronology of Water</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4956</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/9214995-the-chronology-of-water</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lament for a Son</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>974</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/148208.Lament_for_a_Son</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Far from the Tree: Parents, Children, and the Search for Identity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12131</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/13547504-far-from-the-tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>I Liked My Life</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3450</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/29875926-i-liked-my-life</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>These Is My Words: The Diary of Sarah Agnes Prine, 1881-1901, Arizona Territories (Sarah Agnes Prine, #1)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>44889</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/348225.These_Is_My_Words</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Murderville (Murderville, #1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2120</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/9805946-murderville</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Good Night, Mr. Tom</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25271</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/161099.Good_Night_Mr_Tom</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>I Have Lived a Thousand Years</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16409</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/48834.I_Have_Lived_a_Thousand_Years</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>The Outside Circle: A Graphic Novel</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>875</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/23130299-the-outside-circle</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Best We Could Do</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/29936927-the-best-we-could-do</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hum If You Don’t Know the Words</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>971</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/28264701-hum-if-you-don-t-know-the-words</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>My Lovely Wife in the Psych Ward</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1215</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/31371250-my-lovely-wife-in-the-psych-ward</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ghost Stories (Essex County, #2)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>953</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/1101110.Essex_County_Vol_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Stars Between the Sun and Moon: One Woman's Life in North Korea and Escape to Freedom</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>451</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25420166-stars-between-the-sun-and-moon</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rising Strong</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23667</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/23317538-rising-strong</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Redefining Realness: My Path to Womanhood, Identity, Love &amp; So Much More</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4581</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18144031-redefining-realness</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The Heart of a Woman</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C19" t="n">
+        <v>16156</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/5160.The_Heart_of_a_Woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>My Journey : Transforming Dreams into Actions</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1743</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18371021-my-journey</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Maus II: A Survivor's Tale: And Here My Troubles Began (Maus, #2)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C21" t="n">
+        <v>93669</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/15197.Maus_II</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Before I Forget</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>442</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/6098089-before-i-forget</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hannah's Gift: Lessons from a Life Fully Lived</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>868</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/806124.Hannah_s_Gift</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Evicted: Poverty and Profit in the American City</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C24" t="n">
+        <v>18205</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25852784-evicted</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>All But My Life: A Memoir</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>14073</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/163363.All_But_My_Life</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Swami and Friends</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>8253</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/732482.Swami_and_Friends</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>I Loved You More</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C27" t="n">
+        <v>456</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18226784-i-loved-you-more</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>You Don't Have to Say You Love Me</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4478</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/31420708-you-don-t-have-to-say-you-love-me</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The Magic Strings of Frankie Presto</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17187</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25142924-the-magic-strings-of-frankie-presto</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Night (The Night Trilogy #1)</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>708754</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/1617.Night</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Daytripper</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18265</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/8477057-daytripper</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3280,1556 +3182,160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Never Split the Difference: Negotiating As If Your Life Depended On It</t>
+          <t>Mufaro's Beautiful Daughters: An African Tale</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.49</v>
+        <v>4.32</v>
       </c>
       <c r="C2" t="n">
-        <v>3314</v>
+        <v>16896</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26156469-never-split-the-difference</t>
+          <t>https://www.goodreads.com/book/show/845403.Mufaro_s_Beautiful_Daughters</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Harrison Bergeron</t>
+          <t>The War that Saved My Life (The War That Saved My Life #1)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.23</v>
+        <v>4.44</v>
       </c>
       <c r="C3" t="n">
-        <v>10690</v>
+        <v>21307</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/10176119-harrison-bergeron</t>
+          <t>https://www.goodreads.com/book/show/20912424-the-war-that-saved-my-life</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Match: The Day the Game of Golf Changed Forever</t>
+          <t>The First Rumpole Omnibus</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.32</v>
+        <v>4.3</v>
       </c>
       <c r="C4" t="n">
-        <v>1532</v>
+        <v>1278</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/571428.The_Match</t>
+          <t>https://www.goodreads.com/book/show/54383.The_First_Rumpole_Omnibus</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Girl Who Played with Fire (Millennium #2)</t>
+          <t>Uncle Dynamite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.22</v>
+        <v>4.28</v>
       </c>
       <c r="C5" t="n">
-        <v>7361</v>
+        <v>518</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6087991-the-girl-who-played-with-fire</t>
+          <t>https://www.goodreads.com/book/show/16241184-uncle-dynamite</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Shadows for Silence in the Forests of Hell</t>
+          <t>The Pillars of the Earth (Kingsbridge, #1)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.16</v>
+        <v>4.29</v>
       </c>
       <c r="C6" t="n">
-        <v>5683</v>
+        <v>471990</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/21411388-shadows-for-silence-in-the-forests-of-hell</t>
+          <t>https://www.goodreads.com/book/show/5043.The_Pillars_of_the_Earth</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Cartel (The Cartel, #1)</t>
+          <t>Bridge of Birds (The Chronicles of Master Li and Number Ten Ox, #1)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.58</v>
+        <v>4.3</v>
       </c>
       <c r="C7" t="n">
-        <v>5703</v>
+        <v>8063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/5953477-the-cartel</t>
+          <t>https://www.goodreads.com/book/show/15177.Bridge_of_Birds</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hawkeye, Volume 4: Rio Bravo</t>
+          <t>Toby Alone (Tobie Lolness, #1)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.31</v>
+        <v>4.18</v>
       </c>
       <c r="C8" t="n">
-        <v>5523</v>
+        <v>1467</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/22237290-hawkeye-volume-4</t>
+          <t>https://www.goodreads.com/book/show/2535732.Toby_Alone</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Much Obliged, Jeeves</t>
+          <t>Alice in Wonderland: Based on the Motion Picture Directed by Tim Burton</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.24</v>
+        <v>4.19</v>
       </c>
       <c r="C9" t="n">
-        <v>472</v>
+        <v>2221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/16394.Much_Obliged_Jeeves</t>
+          <t>https://www.goodreads.com/book/show/7052617-alice-in-wonderland</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The First Hostage (J. B. Collins, #2)</t>
+          <t>The Lion, the Witch, and the Wardrobe (Chronicles of Narnia, #1)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.43</v>
+        <v>4.19</v>
       </c>
       <c r="C10" t="n">
-        <v>1619</v>
+        <v>1575387</v>
       </c>
       <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/26043842-the-first-hostage</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>avg_rating</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>ratings_count</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A Little Life</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C2" t="n">
-        <v>762</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29408433-a-little-life</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Far from the Tree: Parents, Children, and the Search for Identity</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12131</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/13547504-far-from-the-tree</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Stars Between the Sun and Moon: One Woman's Life in North Korea and Escape to Freedom</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C4" t="n">
-        <v>451</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25420166-stars-between-the-sun-and-moon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>The Heart of a Woman</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16156</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/5160.The_Heart_of_a_Woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>I Liked My Life</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3450</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29875926-i-liked-my-life</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hannah's Gift: Lessons from a Life Fully Lived</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C7" t="n">
-        <v>868</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/806124.Hannah_s_Gift</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Lament for a Son</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C8" t="n">
-        <v>974</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/148208.Lament_for_a_Son</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>North of Normal: A Memoir of My Wilderness Childhood, My Unusual Family, and How I Survived Both</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3428</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18635097-north-of-normal</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>My Lovely Wife in the Psych Ward</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1215</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/31371250-my-lovely-wife-in-the-psych-ward</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>All But My Life: A Memoir</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/163363.All_But_My_Life</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>My Journey : Transforming Dreams into Actions</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1743</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18371021-my-journey</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Instrumental: A Memoir of Madness, Medication and Music</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1796</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/21896497-instrumental</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>After Auschwitz</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C14" t="n">
-        <v>467</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17828703-after-auschwitz</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>I Have Lived a Thousand Years</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16409</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/48834.I_Have_Lived_a_Thousand_Years</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Going to Meet the Man</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3203</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/38469.Going_to_Meet_the_Man</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Redefining Realness: My Path to Womanhood, Identity, Love &amp; So Much More</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4581</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18144031-redefining-realness</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Carry On, Warrior: The Power of Embracing Your Messy, Beautiful Life</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2041</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17138313-carry-on-warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>One Million Lovely Letters: When Life is Looking Hopeless, One Inspirational Letter Can Change Your Life Forever</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C19" t="n">
-        <v>425</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/19862844-one-million-lovely-letters</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Have a Little Faith: a True Story</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C20" t="n">
-        <v>60867</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/1255781.Have_a_Little_Faith</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Pastel Orphans</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1039</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/24036089-pastel-orphans</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Night (The Night Trilogy #1)</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C22" t="n">
-        <v>708754</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/1617.Night</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>The Outside Circle: A Graphic Novel</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C23" t="n">
-        <v>875</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23130299-the-outside-circle</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Madness Vase: By Andrea Gibson</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1631</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12193298-the-madness-vase</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The Happiest Refugee: A Memoir</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C25" t="n">
-        <v>6776</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9160903-the-happiest-refugee</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Garden, Ashes</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C26" t="n">
-        <v>702</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/217984.Garden_Ashes</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Rising Strong</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C27" t="n">
-        <v>23667</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23317538-rising-strong</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>All Who Go Do Not Return: A Memoir</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1980</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22244929-all-who-go-do-not-return</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Murderville (Murderville, #1)</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2120</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9805946-murderville</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Lighter Than My Shadow</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1061</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17456953-lighter-than-my-shadow</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Evicted: Poverty and Profit in the American City</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C31" t="n">
-        <v>18205</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25852784-evicted</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Hum If You Don’t Know the Words</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C32" t="n">
-        <v>971</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/28264701-hum-if-you-don-t-know-the-words</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Indian Horse</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C33" t="n">
-        <v>5992</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/11994903-indian-horse</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>These Is My Words: The Diary of Sarah Agnes Prine, 1881-1901, Arizona Territories (Sarah Agnes Prine, #1)</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C34" t="n">
-        <v>44889</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/348225.These_Is_My_Words</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Rest in Power: The Enduring Life of Trayvon Martin</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C35" t="n">
-        <v>463</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/31227733-rest-in-power</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Good Night, Mr. Tom</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25271</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/161099.Good_Night_Mr_Tom</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The Story of a New Name (The Neapolitan Novels #2)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>36545</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17465515-the-story-of-a-new-name</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Ghost Stories (Essex County, #2)</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>953</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/1101110.Essex_County_Vol_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>The Seven Good Years</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C39" t="n">
-        <v>2373</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23399025-the-seven-good-years</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Maus: A Survivor's Tale : My Father Bleeds History (Maus, #1)</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C40" t="n">
-        <v>6886</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/64229.Maus</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Maus II: A Survivor's Tale: And Here My Troubles Began (Maus, #2)</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C41" t="n">
-        <v>93669</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/15197.Maus_II</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Born a Crime: Stories from a South African Childhood</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1328</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/33156573-born-a-crime</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Before I Forget</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C43" t="n">
-        <v>442</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6098089-before-i-forget</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>You Don't Have to Say You Love Me</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4478</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/31420708-you-don-t-have-to-say-you-love-me</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Walk Through Walls: A Memoir</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C45" t="n">
-        <v>972</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/28814918-walk-through-walls</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>I Loved You More</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C46" t="n">
-        <v>456</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18226784-i-loved-you-more</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>The Best We Could Do</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29936927-the-best-we-could-do</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Shtum</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C48" t="n">
-        <v>1932</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25369192-shtum</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>The Chronology of Water</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4956</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9214995-the-chronology-of-water</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Necessary Lies (Necessary Lies, #1)</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C50" t="n">
-        <v>34119</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17286747-necessary-lies</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Daytripper</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C51" t="n">
-        <v>18265</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/8477057-daytripper</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>avg_rating</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>ratings_count</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The War that Saved My Life (The War That Saved My Life #1)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21307</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/20912424-the-war-that-saved-my-life</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>The Trials of Morrigan Crow (Nevermoor, #1)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="C3" t="n">
-        <v>754</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/34219873-nevermoor</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mufaro's Beautiful Daughters: An African Tale</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16896</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/845403.Mufaro_s_Beautiful_Daughters</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Grounded: The Adventures of Rapunzel (Tyme #1)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1438</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23399287-grounded</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The Complete Grimm's Fairy Tales</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C6" t="n">
-        <v>117324</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22917.The_Complete_Grimm_s_Fairy_Tales</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The Pillars of the Earth (Kingsbridge, #1)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C7" t="n">
-        <v>471990</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/5043.The_Pillars_of_the_Earth</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Uncle Dynamite</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C8" t="n">
-        <v>518</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/16241184-uncle-dynamite</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Out from Boneville (Bone, #1)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>63254</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/106134.Out_from_Boneville</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>The First Rumpole Omnibus</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1278</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/54383.The_First_Rumpole_Omnibus</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>J.R.R. Tolkien 4-Book Boxed Set: The Hobbit and The Lord of the Rings</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C11" t="n">
-        <v>92172</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/30.J_R_R_Tolkien_4_Book_Boxed_Set</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Toby Alone (Tobie Lolness, #1)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1467</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/2535732.Toby_Alone</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>The Staff of Serapis (Percy Jackson &amp; Kane Chronicles Crossover #2)</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12530</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18752959-the-staff-of-serapis</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A Boy Called Christmas</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1471</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25882558-a-boy-called-christmas</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Jaya: An Illustrated Retelling of the Mahabharata</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9857</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9864913-jaya</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>The Sunne in Splendour</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15523</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/119829.The_Sunne_in_Splendour</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Bridge of Birds (The Chronicles of Master Li and Number Ten Ox, #1)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/15177.Bridge_of_Birds</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Pride &amp; Prejudice</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C18" t="n">
-        <v>771</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6909919-pride-prejudice</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>The Physician (Cole Family Trilogy, #1)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C19" t="n">
-        <v>19716</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/4692.The_Physician</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Interstellar Cinderella</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2024</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22875394-interstellar-cinderella</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Alice in Wonderland: Based on the Motion Picture Directed by Tim Burton</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2221</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/7052617-alice-in-wonderland</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>The 13½ Lives of Captain Bluebear (Zamonia, #1)</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10790</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/62032.The_13_Lives_of_Captain_Bluebear</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>The Student Prince (The Student Prince, #1)</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3310</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17277854-the-student-prince</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Lion, the Witch, and the Wardrobe (Chronicles of Narnia, #1)</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1575387</v>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>https://www.goodreads.com/book/show/100915.The_Lion_the_Witch_and_the_Wardrobe</t>
         </is>
@@ -7389,7 +5895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7422,900 +5928,810 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Indonesia, Etc.: Exploring the Improbable Nation</t>
+          <t>Daring to Drive: A Saudi Woman’s Awakening</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.18</v>
+        <v>4.32</v>
       </c>
       <c r="C2" t="n">
-        <v>470</v>
+        <v>871</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18377963-indonesia-etc</t>
+          <t>https://www.goodreads.com/book/show/32620356-daring-to-drive</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Destiny Disrupted: A History of the World Through Islamic Eyes</t>
+          <t>The Girl with Seven Names: A North Korean Defector’s Story</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.34</v>
+        <v>4.45</v>
       </c>
       <c r="C3" t="n">
-        <v>416</v>
+        <v>8293</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6715481-destiny-disrupted</t>
+          <t>https://www.goodreads.com/book/show/25362017-the-girl-with-seven-names</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Conversation in the Cathedral</t>
+          <t>Ratf**ked: The True Story Behind The Secret Plan To Steal America's Democracy</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.32</v>
+        <v>4.16</v>
       </c>
       <c r="C4" t="n">
-        <v>3331</v>
+        <v>438</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/53970.Conversation_in_the_Cathedral</t>
+          <t>https://www.goodreads.com/book/show/26889647-ratf-ked</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>My Promised Land: The Triumph and Tragedy of Israel</t>
+          <t>American Tabloid (Underworld USA, #1)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.22</v>
+        <v>4.21</v>
       </c>
       <c r="C5" t="n">
-        <v>4226</v>
+        <v>10342</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/15798334-my-promised-land</t>
+          <t>https://www.goodreads.com/book/show/36064.American_Tabloid</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Girl with Seven Names: A North Korean Defector’s Story</t>
+          <t>A Fighting Chance</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.45</v>
+        <v>4.17</v>
       </c>
       <c r="C6" t="n">
-        <v>8293</v>
+        <v>8740</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25362017-the-girl-with-seven-names</t>
+          <t>https://www.goodreads.com/book/show/18779662-a-fighting-chance</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>March: Book One (March, #1)</t>
+          <t>Fortune is a Woman</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.34</v>
+        <v>4.21</v>
       </c>
       <c r="C7" t="n">
-        <v>21092</v>
+        <v>992</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17346698-march</t>
+          <t>https://www.goodreads.com/book/show/355715.Fortune_is_a_Woman</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Arch of Triumph: A Novel of a Man Without a Country</t>
+          <t>The Silk Roads: A New History of the World</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.4</v>
+        <v>4.25</v>
       </c>
       <c r="C8" t="n">
-        <v>11703</v>
+        <v>3022</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/672948.Arch_of_Triumph</t>
+          <t>https://www.goodreads.com/book/show/25812847-the-silk-roads</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shoe Dog: A Memoir by the Creator of NIKE</t>
+          <t>Arch of Triumph: A Novel of a Man Without a Country</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.44</v>
+        <v>4.4</v>
       </c>
       <c r="C9" t="n">
-        <v>27468</v>
+        <v>11703</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/27220736-shoe-dog</t>
+          <t>https://www.goodreads.com/book/show/672948.Arch_of_Triumph</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>The New Jim Crow: Mass Incarceration in the Age of Colorblindness</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.49</v>
+        <v>4.18</v>
       </c>
       <c r="C10" t="n">
-        <v>24694</v>
+        <v>48230</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6792458-the-new-jim-crow</t>
+          <t>https://www.goodreads.com/book/show/6480781-open</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>The Silk Roads: A New History of the World</t>
+          <t>The Great Dune Trilogy</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.25</v>
+        <v>4.36</v>
       </c>
       <c r="C11" t="n">
-        <v>3022</v>
+        <v>52034</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25812847-the-silk-roads</t>
+          <t>https://www.goodreads.com/book/show/53764.The_Great_Dune_Trilogy</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>The Dark Side: The Inside Story of How the War on Terror Turned Into a War on American Ideals</t>
+          <t>Top Dog: The Story of Marine Hero Lucca</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.18</v>
+        <v>4.34</v>
       </c>
       <c r="C12" t="n">
-        <v>3163</v>
+        <v>505</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/3280003-the-dark-side</t>
+          <t>https://www.goodreads.com/book/show/20893379-top-dog</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jubilee</t>
+          <t>No Ordinary Time: Franklin and Eleanor Roosevelt: The Home Front in World War II</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="C13" t="n">
-        <v>2961</v>
+        <v>28368</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/571420.Jubilee</t>
+          <t>https://www.goodreads.com/book/show/18728.No_Ordinary_Time</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dear Leader: Poet, Spy, Escapee—A Look Inside North Korea</t>
+          <t>Pachinko</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.29</v>
+        <v>4.18</v>
       </c>
       <c r="C14" t="n">
-        <v>2732</v>
+        <v>8161</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/20736640-dear-leader</t>
+          <t>https://www.goodreads.com/book/show/29983711-pachinko</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Diplomacy</t>
+          <t>Indonesia, Etc.: Exploring the Improbable Nation</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>4.18</v>
       </c>
       <c r="C15" t="n">
-        <v>4584</v>
+        <v>470</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/781183.Diplomacy</t>
+          <t>https://www.goodreads.com/book/show/18377963-indonesia-etc</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Black Earth: The Holocaust as History and Warning</t>
+          <t>Get Well Soon: History's Worst Plagues and the Heroes Who Fought Them</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.21</v>
+        <v>4.24</v>
       </c>
       <c r="C16" t="n">
-        <v>1133</v>
+        <v>1163</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/23995415-black-earth</t>
+          <t>https://www.goodreads.com/book/show/30199426-get-well-soon</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>March: Book Two (March, #2)</t>
+          <t>Auschwitz and After</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.54</v>
+        <v>4.35</v>
       </c>
       <c r="C17" t="n">
-        <v>10428</v>
+        <v>758</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/22487952-march</t>
+          <t>https://www.goodreads.com/book/show/339757.Auschwitz_and_After</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kaputt</t>
+          <t>The New Jim Crow: Mass Incarceration in the Age of Colorblindness</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.16</v>
+        <v>4.49</v>
       </c>
       <c r="C18" t="n">
-        <v>845</v>
+        <v>24694</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/138428.Kaputt</t>
+          <t>https://www.goodreads.com/book/show/6792458-the-new-jim-crow</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>From #blacklivesmatter To Black Liberation</t>
+          <t>Our Revolution: A Future to Believe In</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.54</v>
+        <v>4.29</v>
       </c>
       <c r="C19" t="n">
-        <v>548</v>
+        <v>2430</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25330220-from-blacklivesmatter-to-black-liberation</t>
+          <t>https://www.goodreads.com/book/show/31741420-our-revolution</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Escape from Freedom</t>
+          <t>Shoe Dog: A Memoir by the Creator of NIKE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.23</v>
+        <v>4.44</v>
       </c>
       <c r="C20" t="n">
-        <v>5910</v>
+        <v>27468</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25491.Escape_from_Freedom</t>
+          <t>https://www.goodreads.com/book/show/27220736-shoe-dog</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Crazy Is My Superpower:  How I Triumphed by Breaking Bones, Breaking Hearts, and Breaking the Rules</t>
+          <t>Digital Gold: Bitcoin and the Inside Story of the Misfits and Millionaires Trying to Reinvent Money</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.48</v>
+        <v>4.16</v>
       </c>
       <c r="C21" t="n">
-        <v>551</v>
+        <v>1674</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/27866300-crazy-is-my-superpower</t>
+          <t>https://www.goodreads.com/book/show/23546676-digital-gold</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Destiny Disrupted: A History of the World through Islamic Eyes</t>
+          <t>Persepolis: The Story of a Childhood (Persepolis, #1)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.34</v>
+        <v>4.23</v>
       </c>
       <c r="C22" t="n">
-        <v>3697</v>
+        <v>119470</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6240926-destiny-disrupted</t>
+          <t>https://www.goodreads.com/book/show/9516.Persepolis</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>War's Unwomanly Face</t>
+          <t>The Tears of My Soul</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.52</v>
+        <v>4.2</v>
       </c>
       <c r="C23" t="n">
-        <v>1182</v>
+        <v>578</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/4025275-war-s-unwomanly-face</t>
+          <t>https://www.goodreads.com/book/show/735303.The_Tears_of_My_Soul</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Daring to Drive: A Saudi Woman’s Awakening</t>
+          <t>Dear Leader: Poet, Spy, Escapee—A Look Inside North Korea</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.32</v>
+        <v>4.29</v>
       </c>
       <c r="C24" t="n">
-        <v>871</v>
+        <v>2732</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/32620356-daring-to-drive</t>
+          <t>https://www.goodreads.com/book/show/20736640-dear-leader</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A Fighting Chance</t>
+          <t>Stamped from the Beginning: The Definitive History of Racist Ideas in America</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.17</v>
+        <v>4.54</v>
       </c>
       <c r="C25" t="n">
-        <v>8740</v>
+        <v>996</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18779662-a-fighting-chance</t>
+          <t>https://www.goodreads.com/book/show/25898216-stamped-from-the-beginning</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Before the Mayflower: A History of Black America</t>
+          <t>Blood Meridian, or the Evening Redness in the West</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.41</v>
+        <v>4.18</v>
       </c>
       <c r="C26" t="n">
-        <v>1868</v>
+        <v>959</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/1084995.Before_the_Mayflower</t>
+          <t>https://www.goodreads.com/book/show/10876214-blood-meridian-or-the-evening-redness-in-the-west</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>The Looming Tower: Al Qaeda and the Road to 9/11</t>
+          <t>First They Killed My Father: A Daughter of Cambodia Remembers</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.38</v>
+        <v>4.3</v>
       </c>
       <c r="C27" t="n">
-        <v>1103</v>
+        <v>18580</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/525461.The_Looming_Tower</t>
+          <t>https://www.goodreads.com/book/show/4373.First_They_Killed_My_Father</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Believer: My Forty Years in Politics</t>
+          <t>They Poured Fire on Us From the Sky: The True Story of Three Lost Boys from Sudan</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.16</v>
+        <v>4.18</v>
       </c>
       <c r="C28" t="n">
-        <v>1284</v>
+        <v>6493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/22571634-believer</t>
+          <t>https://www.goodreads.com/book/show/143819.They_Poured_Fire_on_Us_From_the_Sky</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Robert Kennedy and His Times</t>
+          <t>My Promised Land: The Triumph and Tragedy of Israel</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>4.22</v>
       </c>
       <c r="C29" t="n">
-        <v>1803</v>
+        <v>4226</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/112472.Robert_Kennedy_and_His_Times</t>
+          <t>https://www.goodreads.com/book/show/15798334-my-promised-land</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fortune is a Woman</t>
+          <t>War's Unwomanly Face</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.21</v>
+        <v>4.52</v>
       </c>
       <c r="C30" t="n">
-        <v>992</v>
+        <v>1182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/355715.Fortune_is_a_Woman</t>
+          <t>https://www.goodreads.com/book/show/4025275-war-s-unwomanly-face</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>First They Killed My Father: A Daughter of Cambodia Remembers</t>
+          <t>The Way of Kings, Part 1 (The Stormlight Archive #1.1)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.3</v>
+        <v>4.67</v>
       </c>
       <c r="C31" t="n">
-        <v>18580</v>
+        <v>10191</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/4373.First_They_Killed_My_Father</t>
+          <t>https://www.goodreads.com/book/show/9329354-the-way-of-kings-part-1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>An Army at Dawn: The War in North Africa, 1942-1943 (World War II Liberation Trilogy, #1)</t>
+          <t>Citizens of London: The Americans who Stood with Britain in its Darkest, Finest Hour</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.24</v>
+        <v>4.19</v>
       </c>
       <c r="C32" t="n">
-        <v>11301</v>
+        <v>4517</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/541920.An_Army_at_Dawn</t>
+          <t>https://www.goodreads.com/book/show/6947702-citizens-of-london</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Means of Ascent (The Years of Lyndon Johnson, #2)</t>
+          <t>Auschwitz: A Doctor's Eyewitness Account</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="C33" t="n">
-        <v>14003</v>
+        <v>8525</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/208324.Means_of_Ascent</t>
+          <t>https://www.goodreads.com/book/show/315578.Auschwitz</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Righteous Dopefiend</t>
+          <t>In Order to Live: A North Korean Girl's Journey to Freedom</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.42</v>
+        <v>4.48</v>
       </c>
       <c r="C34" t="n">
-        <v>802</v>
+        <v>8076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/6614135-righteous-dopefiend</t>
+          <t>https://www.goodreads.com/book/show/24611623-in-order-to-live</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The Best and the Brightest</t>
+          <t>The Day of Battle: The War in Sicily and Italy, 1943-1944 (World War II Liberation Trilogy, #2)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.26</v>
+        <v>4.34</v>
       </c>
       <c r="C35" t="n">
-        <v>7852</v>
+        <v>8414</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/414062.The_Best_and_the_Brightest</t>
+          <t>https://www.goodreads.com/book/show/716532.The_Day_of_Battle</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pachinko</t>
+          <t>A Chance to Die: The Life and Legacy of Amy Carmichael</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.18</v>
+        <v>4.28</v>
       </c>
       <c r="C36" t="n">
-        <v>8161</v>
+        <v>4270</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/29983711-pachinko</t>
+          <t>https://www.goodreads.com/book/show/126177.A_Chance_to_Die</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>White Rage: The Unspoken Truth of Our Racial Divide</t>
+          <t>Why I Am An Atheist: An Autobiographical Discourse</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.41</v>
+        <v>4.45</v>
       </c>
       <c r="C37" t="n">
-        <v>1793</v>
+        <v>866</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26073085-white-rage</t>
+          <t>https://www.goodreads.com/book/show/1389596.Why_I_Am_An_Atheist</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Persepolis: The Story of a Childhood (Persepolis, #1)</t>
+          <t>An Army at Dawn: The War in North Africa, 1942-1943 (World War II Liberation Trilogy, #1)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.23</v>
+        <v>4.24</v>
       </c>
       <c r="C38" t="n">
-        <v>119470</v>
+        <v>11301</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/9516.Persepolis</t>
+          <t>https://www.goodreads.com/book/show/541920.An_Army_at_Dawn</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ratf**ked: The True Story Behind The Secret Plan To Steal America's Democracy</t>
+          <t>Assata: An Autobiography</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.16</v>
+        <v>4.47</v>
       </c>
       <c r="C39" t="n">
-        <v>438</v>
+        <v>11057</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26889647-ratf-ked</t>
+          <t>https://www.goodreads.com/book/show/100322.Assata</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tragedy and Hope: A History of the World in Our Time</t>
+          <t>Slouching Towards Bethlehem</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.35</v>
+        <v>4.23</v>
       </c>
       <c r="C40" t="n">
-        <v>435</v>
+        <v>18540</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/726546.Tragedy_and_Hope</t>
+          <t>https://www.goodreads.com/book/show/424.Slouching_Towards_Bethlehem</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Stamped from the Beginning: The Definitive History of Racist Ideas in America</t>
+          <t>No Disrespect</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.54</v>
+        <v>4.21</v>
       </c>
       <c r="C41" t="n">
-        <v>996</v>
+        <v>2691</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25898216-stamped-from-the-beginning</t>
+          <t>https://www.goodreads.com/book/show/52486.No_Disrespect</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>The Great Dune Trilogy</t>
+          <t>We Real Cool: Black Men and Masculinity</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.36</v>
+        <v>4.2</v>
       </c>
       <c r="C42" t="n">
-        <v>52034</v>
+        <v>700</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/53764.The_Great_Dune_Trilogy</t>
+          <t>https://www.goodreads.com/book/show/52740.We_Real_Cool</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>American Tabloid (Underworld USA, #1)</t>
+          <t>We Wish to Inform You That Tomorrow We Will Be Killed with Our Families</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.21</v>
+        <v>4.29</v>
       </c>
       <c r="C43" t="n">
-        <v>10342</v>
+        <v>19564</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/36064.American_Tabloid</t>
+          <t>https://www.goodreads.com/book/show/11472.We_Wish_to_Inform_You_That_Tomorrow_We_Will_Be_Killed_with_Our_Families</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hudson Taylor: Deep in the Heart of China (Christian Heroes: Then &amp; Now)</t>
+          <t>March: Book One (March, #1)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.16</v>
+        <v>4.34</v>
       </c>
       <c r="C44" t="n">
-        <v>420</v>
+        <v>21092</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/215276.Hudson_Taylor</t>
+          <t>https://www.goodreads.com/book/show/17346698-march</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kane and Abel (Kane and Abel, #1)</t>
+          <t>The Great Game: The Struggle for Empire in Central Asia</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.27</v>
+        <v>4.31</v>
       </c>
       <c r="C45" t="n">
-        <v>75215</v>
+        <v>3880</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/78983.Kane_and_Abel</t>
+          <t>https://www.goodreads.com/book/show/138299.The_Great_Game</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Top Dog: The Story of Marine Hero Lucca</t>
+          <t>A Feast of Vultures: The Hidden Business of Democracy in India</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.34</v>
+        <v>4.26</v>
       </c>
       <c r="C46" t="n">
-        <v>505</v>
+        <v>540</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/20893379-top-dog</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>To Live</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2677</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/334971.To_Live</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>A Voice in the Wind (Mark of the Lion, #1)</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="C48" t="n">
-        <v>57014</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/95617.A_Voice_in_the_Wind</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>We Wish to Inform You That Tomorrow We Will Be Killed with Our Families</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C49" t="n">
-        <v>19564</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/11472.We_Wish_to_Inform_You_That_Tomorrow_We_Will_Be_Killed_with_Our_Families</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Bosnian Chronicle</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C50" t="n">
-        <v>619</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/850223.Bosnian_Chronicle</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Auschwitz: A Doctor's Eyewitness Account</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C51" t="n">
-        <v>8525</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/315578.Auschwitz</t>
+          <t>https://www.goodreads.com/book/show/30817292-a-feast-of-vultures</t>
         </is>
       </c>
     </row>
@@ -8330,7 +6746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8363,162 +6779,162 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Natasha's Dance: A Cultural History of Russia</t>
+          <t>The Unreal and the Real: Selected Stories, Volume Two: Outer Space, Inner Lands (The Unreal and the Real, #2)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.16</v>
+        <v>4.23</v>
       </c>
       <c r="C2" t="n">
-        <v>2039</v>
+        <v>459</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/97401.Natasha_s_Dance</t>
+          <t>https://www.goodreads.com/book/show/13591879-the-unreal-and-the-real</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Roots of Romanticism</t>
+          <t>Natasha's Dance: A Cultural History of Russia</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.24</v>
+        <v>4.16</v>
       </c>
       <c r="C3" t="n">
-        <v>437</v>
+        <v>2039</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/84713.The_Roots_of_Romanticism</t>
+          <t>https://www.goodreads.com/book/show/97401.Natasha_s_Dance</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Complete Poems, 1904-1962</t>
+          <t>Sounds Like Me: My Life (So Far) in Song</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.35</v>
+        <v>4.26</v>
       </c>
       <c r="C4" t="n">
-        <v>18787</v>
+        <v>3867</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26596.Complete_Poems_1904_1962</t>
+          <t>https://www.goodreads.com/book/show/25434361-sounds-like-me</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Teaching My Mother How to Give Birth</t>
+          <t>Collected Writings: Common Sense/The Crisis/Rights of Man/The Age of Reason/Pamphlets/Articles &amp; Letters</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.38</v>
+        <v>4.24</v>
       </c>
       <c r="C5" t="n">
-        <v>7830</v>
+        <v>1503</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/13376363-teaching-my-mother-how-to-give-birth</t>
+          <t>https://www.goodreads.com/book/show/99953.Collected_Writings</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tranny: Confessions of Punk Rock's Most Infamous Anarchist Sellout</t>
+          <t>Woman in the Mists: The Story of Dian Fossey and the Mountain Gorillas of Africa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.23</v>
+        <v>4.16</v>
       </c>
       <c r="C6" t="n">
-        <v>2655</v>
+        <v>2955</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/29467305-tranny</t>
+          <t>https://www.goodreads.com/book/show/546693.Woman_in_the_Mists</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Camera (Ansel Adams Photography, #1)</t>
+          <t>Notes from Underground, White Nights, The Dream of a Ridiculous Man, and Selections from The House of the Dead</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.22</v>
+        <v>4.17</v>
       </c>
       <c r="C7" t="n">
-        <v>2663</v>
+        <v>66680</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/20501.The_Camera</t>
+          <t>https://www.goodreads.com/book/show/17876.Notes_from_Underground_White_Nights_The_Dream_of_a_Ridiculous_Man_and_Selections_from_The_House_of_the_Dead</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A Call to Conscience: The Landmark Speeches</t>
+          <t>Mama Ruby</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.53</v>
+        <v>4.25</v>
       </c>
       <c r="C8" t="n">
-        <v>502</v>
+        <v>1376</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/225073.A_Call_to_Conscience</t>
+          <t>https://www.goodreads.com/book/show/9475835-mama-ruby</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>In a Grove</t>
+          <t>Her Smoke Rose Up Forever</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.19</v>
+        <v>4.22</v>
       </c>
       <c r="C9" t="n">
-        <v>1012</v>
+        <v>2539</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/8132998-in-a-grove</t>
+          <t>https://www.goodreads.com/book/show/27059.Her_Smoke_Rose_Up_Forever</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>We Should All Be Feminists</t>
+          <t>Gaviotas: A Village to Reinvent the World</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.47</v>
+        <v>4.17</v>
       </c>
       <c r="C10" t="n">
-        <v>1351</v>
+        <v>555</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/23301818-we-should-all-be-feminists</t>
+          <t>https://www.goodreads.com/book/show/136893.Gaviotas</t>
         </is>
       </c>
     </row>
@@ -8543,720 +6959,432 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Surely You're Joking, Mr. Feynman!: Adventures of a Curious Character</t>
+          <t>Nox</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.29</v>
+        <v>4.3</v>
       </c>
       <c r="C12" t="n">
-        <v>95353</v>
+        <v>2034</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/5544.Surely_You_re_Joking_Mr_Feynman_</t>
+          <t>https://www.goodreads.com/book/show/7428663-nox</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Collected Poems</t>
+          <t>Faraday, Maxwell, and the Electromagnetic Field: How Two Men Revolutionized Physics</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.26</v>
+        <v>4.24</v>
       </c>
       <c r="C13" t="n">
-        <v>5180</v>
+        <v>431</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/321538.Collected_Poems</t>
+          <t>https://www.goodreads.com/book/show/18240286-faraday-maxwell-and-the-electromagnetic-field</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The Book of Nightmares</t>
+          <t>The Fire This Time: A New Generation Speaks about Race</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.24</v>
+        <v>4.35</v>
       </c>
       <c r="C14" t="n">
-        <v>1978</v>
+        <v>2309</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18901.The_Book_of_Nightmares</t>
+          <t>https://www.goodreads.com/book/show/28505023-the-fire-this-time</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>String Theory: David Foster Wallace on Tennis</t>
+          <t>The World According to Mister Rogers: Important Things to Remember</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="C15" t="n">
-        <v>949</v>
+        <v>1795</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/27246166-string-theory</t>
+          <t>https://www.goodreads.com/book/show/73123.The_World_According_to_Mister_Rogers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Notes from Underground, White Nights, The Dream of a Ridiculous Man, and Selections from The House of the Dead</t>
+          <t>Surely You're Joking, Mr. Feynman!: Adventures of a Curious Character</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.17</v>
+        <v>4.29</v>
       </c>
       <c r="C16" t="n">
-        <v>66680</v>
+        <v>95353</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17876.Notes_from_Underground_White_Nights_The_Dream_of_a_Ridiculous_Man_and_Selections_from_The_House_of_the_Dead</t>
+          <t>https://www.goodreads.com/book/show/5544.Surely_You_re_Joking_Mr_Feynman_</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The Fire This Time: A New Generation Speaks about Race</t>
+          <t>We Should All Be Feminists</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.35</v>
+        <v>4.47</v>
       </c>
       <c r="C17" t="n">
-        <v>2309</v>
+        <v>1351</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/28505023-the-fire-this-time</t>
+          <t>https://www.goodreads.com/book/show/23301818-we-should-all-be-feminists</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pioneer Girl: The Annotated Autobiography</t>
+          <t>Gitanjali: Song Offerings</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.19</v>
+        <v>4.33</v>
       </c>
       <c r="C18" t="n">
-        <v>4617</v>
+        <v>4835</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/22212838-pioneer-girl</t>
+          <t>https://www.goodreads.com/book/show/66414.Gitanjali</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Science of Mind</t>
+          <t>The Truth: An Uncomfortable Book About Relationships</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="C19" t="n">
-        <v>1398</v>
+        <v>2503</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/149197.The_Science_of_Mind</t>
+          <t>https://www.goodreads.com/book/show/26887738-the-truth</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>At the Existentialist Café: Freedom, Being, and Apricot Cocktails</t>
+          <t>The Way I Am</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.22</v>
+        <v>4.3</v>
       </c>
       <c r="C20" t="n">
-        <v>2298</v>
+        <v>1576</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/25658482-at-the-existentialist-caf</t>
+          <t>https://www.goodreads.com/book/show/3295736-the-way-i-am</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Short Stories from Hogwarts of Heroism, Hardship and Dangerous Hobbies (Pottermore Presents, #1)</t>
+          <t>The Laugh of the Medusa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.23</v>
+        <v>4.16</v>
       </c>
       <c r="C21" t="n">
-        <v>16961</v>
+        <v>752</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/31538635-short-stories-from-hogwarts-of-heroism-hardship-and-dangerous-hobbies</t>
+          <t>https://www.goodreads.com/book/show/11080013-the-laugh-of-the-medusa</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1001 Inventions: Muslim Heritage in Our World</t>
+          <t>Guns</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.58</v>
+        <v>4.17</v>
       </c>
       <c r="C22" t="n">
-        <v>408</v>
+        <v>3687</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/5042295-1001-inventions</t>
+          <t>https://www.goodreads.com/book/show/17284577-guns</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mama Ruby</t>
+          <t>Martin Eden</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.25</v>
+        <v>4.39</v>
       </c>
       <c r="C23" t="n">
-        <v>1376</v>
+        <v>13257</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/9475835-mama-ruby</t>
+          <t>https://www.goodreads.com/book/show/929782.Martin_Eden</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Showa, 1926-1939: A History of Japan</t>
+          <t>Arctic Dreams</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.21</v>
+        <v>4.2</v>
       </c>
       <c r="C24" t="n">
-        <v>1036</v>
+        <v>4348</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17287068-showa-1926-1939</t>
+          <t>https://www.goodreads.com/book/show/16878.Arctic_Dreams</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Well-Read Women: Portraits of Fiction's Most Beloved Heroines</t>
+          <t>Billions &amp; Billions: Thoughts on Life and Death at the Brink of the Millennium</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.3</v>
+        <v>4.26</v>
       </c>
       <c r="C25" t="n">
-        <v>861</v>
+        <v>11033</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17557474-well-read-women</t>
+          <t>https://www.goodreads.com/book/show/61665.Billions_Billions</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>El olvido que seremos</t>
+          <t>The Library of Babel</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.3</v>
+        <v>4.47</v>
       </c>
       <c r="C26" t="n">
-        <v>2423</v>
+        <v>3929</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/1043247.El_olvido_que_seremos</t>
+          <t>https://www.goodreads.com/book/show/172366.The_Library_of_Babel</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Collected Writings: Common Sense/The Crisis/Rights of Man/The Age of Reason/Pamphlets/Articles &amp; Letters</t>
+          <t>The I Ching or Book of Changes</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="C27" t="n">
-        <v>1503</v>
+        <v>12937</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/99953.Collected_Writings</t>
+          <t>https://www.goodreads.com/book/show/534289.The_I_Ching_or_Book_of_Changes</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Desert Solitaire</t>
+          <t>Srikanta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.22</v>
+        <v>4.23</v>
       </c>
       <c r="C28" t="n">
-        <v>28380</v>
+        <v>1004</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/214614.Desert_Solitaire</t>
+          <t>https://www.goodreads.com/book/show/1417962.Srikanta</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The Unreal and the Real: Selected Stories, Volume Two: Outer Space, Inner Lands (The Unreal and the Real, #2)</t>
+          <t>The Invention of Nature: Alexander von Humboldt's New World</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.23</v>
+        <v>4.29</v>
       </c>
       <c r="C29" t="n">
-        <v>459</v>
+        <v>4817</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/13591879-the-unreal-and-the-real</t>
+          <t>https://www.goodreads.com/book/show/23995249-the-invention-of-nature</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>I Write What I Like: Selected Writings</t>
+          <t>Ogilvy on Advertising</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.33</v>
+        <v>4.17</v>
       </c>
       <c r="C30" t="n">
-        <v>1516</v>
+        <v>5514</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/61124.I_Write_What_I_Like</t>
+          <t>https://www.goodreads.com/book/show/641601.Ogilvy_on_Advertising</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Laugh of the Medusa</t>
+          <t>Short Stories from Hogwarts of Heroism, Hardship and Dangerous Hobbies (Pottermore Presents, #1)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.16</v>
+        <v>4.23</v>
       </c>
       <c r="C31" t="n">
-        <v>752</v>
+        <v>16961</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/11080013-the-laugh-of-the-medusa</t>
+          <t>https://www.goodreads.com/book/show/31538635-short-stories-from-hogwarts-of-heroism-hardship-and-dangerous-hobbies</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Faraday, Maxwell, and the Electromagnetic Field: How Two Men Revolutionized Physics</t>
+          <t>Feminism is for Everybody: Passionate Politics</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="C32" t="n">
-        <v>431</v>
+        <v>7740</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/18240286-faraday-maxwell-and-the-electromagnetic-field</t>
+          <t>https://www.goodreads.com/book/show/168484.Feminism_is_for_Everybody</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The Complete Paintings and Drawings</t>
+          <t>The Brothers Grimm: 101 Fairy Tales</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="C33" t="n">
-        <v>7033</v>
+        <v>624</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/1757416.The_Complete_Paintings_and_Drawings</t>
+          <t>https://www.goodreads.com/book/show/13584788-the-brothers-grimm</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Memoirs of Hadrian</t>
+          <t>The History of Joseph Smith by His Mother</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.25</v>
+        <v>4.37</v>
       </c>
       <c r="C34" t="n">
-        <v>8321</v>
+        <v>3757</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/12172.Memoirs_of_Hadrian</t>
+          <t>https://www.goodreads.com/book/show/218431.The_History_of_Joseph_Smith_by_His_Mother</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Inception: The Shooting Script</t>
+          <t>The Real James Herriot: A Memoir of My Father</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.29</v>
+        <v>4.17</v>
       </c>
       <c r="C35" t="n">
-        <v>2606</v>
+        <v>3791</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/8565270-inception</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Palestine</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C36" t="n">
-        <v>10082</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/769712.Palestine</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>The Invention of Nature: Alexander von Humboldt's New World</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4817</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23995249-the-invention-of-nature</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Address Unknown</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1749</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/114437.Address_Unknown</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>The Wes Anderson Collection</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1902</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17290224-the-wes-anderson-collection</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Her Smoke Rose Up Forever</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2539</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/27059.Her_Smoke_Rose_Up_Forever</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Surely You're Joking, Mr. Feynman!</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1352</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17364.Surely_You_re_Joking_Mr_Feynman_</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Cobain Unseen</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1732</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/3169112-cobain-unseen</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>In the Footsteps of the Prophet: Lessons from the Life of Muhammad</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C43" t="n">
-        <v>2365</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/169338.In_the_Footsteps_of_the_Prophet</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>The Truth: An Uncomfortable Book About Relationships</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>2503</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/26887738-the-truth</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Gaviotas: A Village to Reinvent the World</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C45" t="n">
-        <v>555</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/136893.Gaviotas</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>The Library of Babel</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C46" t="n">
-        <v>3929</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/172366.The_Library_of_Babel</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>The Way I Am</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1576</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/3295736-the-way-i-am</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>The Case for the Real Jesus: A Journalist Investigates Current Attacks on the Identity of Christ</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2561</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/693097.The_Case_for_the_Real_Jesus</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>The I Ching or Book of Changes</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C49" t="n">
-        <v>12937</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/534289.The_I_Ching_or_Book_of_Changes</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Woman in the Mists: The Story of Dian Fossey and the Mountain Gorillas of Africa</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2955</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/546693.Woman_in_the_Mists</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Consider the Lobster and Other Essays</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C51" t="n">
-        <v>27237</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6751.Consider_the_Lobster_and_Other_Essays</t>
+          <t>https://www.goodreads.com/book/show/38737.The_Real_James_Herriot</t>
         </is>
       </c>
     </row>
@@ -9266,1492 +7394,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>avg_rating</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>ratings_count</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The Abyss Beyond Dreams</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4944</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/20697413-the-abyss-beyond-dreams</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>The Evolutionary Void</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C3" t="n">
-        <v>13729</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/7438179-the-evolutionary-void</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Wolf by Wolf (Wolf by Wolf, #1)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9710</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/24807186-wolf-by-wolf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Kings of the Wyld (The Band, #1)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2285</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/30841984-kings-of-the-wyld</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The Winter Fortress: The Epic Mission to Sabotage Hitler’s Atomic Bomb</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1057</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25897720-the-winter-fortress</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The World Is Blue: How Our Fate and the Ocean's Are One</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C7" t="n">
-        <v>486</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6885052-the-world-is-blue</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Foundation / Foundation and Empire / Second Foundation / The Stars, Like Dust / The Naked Sun / I, Robot</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C8" t="n">
-        <v>3316</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/278097.Foundation_Foundation_and_Empire_Second_Foundation_The_Stars_Like_Dust_The_Naked_Sun_I_Robot</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>The Honor of the Queen (Honor Harrington, #2)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C9" t="n">
-        <v>487</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/261758.The_Honor_of_the_Queen</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Caliban's War (The Expanse, #2)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C10" t="n">
-        <v>41459</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12591698-caliban-s-war</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Spellbound (Grimnoir Chronicles, #2)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>7184</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/10822283-spellbound</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Machine Moon (Descender, #2)</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3275</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/28204537-descender-vol-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Lost Stars</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9512</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25067046-lost-stars</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Avatar: The Last Airbender: The Promise, Part 1 (The Promise, #1)</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C14" t="n">
-        <v>18987</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12413836-avatar</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Deep: Freediving, Renegade Science, and What the Ocean Tells Us about Ourselves</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1144</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18222705-deep</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Leviathan Wakes (Expanse #1)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1998</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9533361-leviathan-wakes</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Adulthood Rites (Xenogenesis, #2)</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7081</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/116249.Adulthood_Rites</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>The Last Rhinos: My Battle to Save One of the World's Greatest Creatures</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1094</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/13167157-the-last-rhinos</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>I, Robot (Robot #0.1)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>201196</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/41804.I_Robot</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>The Hyperion Omnibus: Hyperion / The Fall of Hyperion</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2254</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/3943.The_Hyperion_Omnibus</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The Deep: The Extraordinary Creatures of the Abyss</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C21" t="n">
-        <v>901</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/442668.The_Deep</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>The Ultimate Hitchhiker's Guide to the Galaxy</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C22" t="n">
-        <v>225626</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/13.The_Ultimate_Hitchhiker_s_Guide_to_the_Galaxy</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Spillover: Animal Infections and the Next Human Pandemic</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2586</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/13637215-spillover</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Walking Dead, Compendium 1</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="C24" t="n">
-        <v>58434</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6465707-the-walking-dead-compendium-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Judas Unchained</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C25" t="n">
-        <v>21306</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/45244.Judas_Unchained</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Dreaming Void</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C26" t="n">
-        <v>16512</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/866136.The_Dreaming_Void</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>The Long Way to a Small, Angry Planet (Wayfarers, #1)</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C27" t="n">
-        <v>703</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/27213244-the-long-way-to-a-small-angry-planet</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Star Wars #1</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1109</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/24496462-star-wars-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Wildest Dreams (Fantasyland, #1)</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C29" t="n">
-        <v>20358</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12390650-wildest-dreams</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>avg_rating</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>ratings_count</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>url</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>The Power of Vulnerability: Teachings of Authenticity, Connections and Courage</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3778</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/23500254-the-power-of-vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Every Body Yoga: Let Go of Fear. Get On the Mat. Love Your Body.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>619</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/30754069-every-body-yoga</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Loving God</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1342</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/903912.Loving_God</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mountains Beyond Mountains: The Quest of Dr. Paul Farmer, A Man Who Would Cure the World</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C5" t="n">
-        <v>53936</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/10235.Mountains_Beyond_Mountains</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>The Story of the Human Body: Evolution, Health, and Disease</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2759</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17736859-the-story-of-the-human-body</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>The Hard Thing About Hard Things: Building a Business When There Are No Easy Answers</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20745</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18176747-the-hard-thing-about-hard-things</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>The Power of a Praying Woman</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9867</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18054709-the-power-of-a-praying-woman</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>The Pleasures of God: Meditations on God's Delight in Being God</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4596</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/45364.The_Pleasures_of_God</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>The (7L) The Seven Levels of Communication: Go From Relationships to Referrals</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C10" t="n">
-        <v>482</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9858250-the-7l-the-seven-levels-of-communication</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ready to Run: Unlocking Your Potential to Run Naturally</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="C11" t="n">
-        <v>772</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18668429-ready-to-run</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Come as You Are: The Surprising New Science that Will Transform Your Sex Life</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3258</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22609341-come-as-you-are</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Vegan's Daily Companion: 365 Days of Inspiration for Cooking, Eating, and Living Compassionately</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C13" t="n">
-        <v>739</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/9462708-vegan-s-daily-companion</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Radical Acceptance: Embracing Your Life With the Heart of a Buddha</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>8593</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/173666.Radical_Acceptance</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Autism's False Prophets: Bad Science, Risky Medicine, and the Search for a Cure</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C15" t="n">
-        <v>987</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/3360358-autism-s-false-prophets</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Unashamed</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1747</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25802615-unashamed</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>There Is No Good Card for This: What To Say and Do When Life Is Scary, Awful, and Unfair to People You Love</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C17" t="n">
-        <v>547</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/28257714-there-is-no-good-card-for-this</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A Praying Life: Connecting with God in a Distracting World</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7482</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6426403-a-praying-life</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Dont Make Me Think And Html World Wide Web</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C19" t="n">
-        <v>653</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/1210562.Dont_Make_Me_Think_And_Html_World_Wide_Web</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Totto-chan: The Little Girl at the Window</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>14456</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/328802.Totto_chan</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A Mind for Numbers: How to Excel at Math and Science</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4158</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18693655-a-mind-for-numbers</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Bruce Lee: The Art of Expressing the Human Body</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C22" t="n">
-        <v>917</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/518750.Bruce_Lee</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Thinking in Systems: A Primer</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C23" t="n">
-        <v>3011</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/3828902-thinking-in-systems</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>No-Drama Discipline: The Whole-Brain Way to Calm the Chaos and Nurture Your Child's Developing Mind</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1852</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/20342499-no-drama-discipline</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>The Go-Giver: A Little Story About a Powerful Business Idea</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="C25" t="n">
-        <v>7145</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/1873060.The_Go_Giver</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>How to Talk So Kids Will Listen &amp; Listen So Kids Will Talk</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C26" t="n">
-        <v>997</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/12131153-how-to-talk-so-kids-will-listen-listen-so-kids-will-talk</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>TED Talks: The Official TED Guide to Public Speaking</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2368</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25897871-ted-talks</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>The Clean Coder: A Code of Conduct for Professional Programmers</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3173</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/10284614-the-clean-coder</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>The Little Book That Builds Wealth: The Knockout Formula for Finding Great Investments</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C29" t="n">
-        <v>778</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/2389174.The_Little_Book_That_Builds_Wealth</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>No Death, No Fear</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/187636.No_Death_No_Fear</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Economics: The User's Guide: A Pelican Introduction</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C31" t="n">
-        <v>610</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/20702125-economics</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>The Book on the Taboo Against Knowing Who You Are</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10108</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/60551.The_Book_on_the_Taboo_Against_Knowing_Who_You_Are</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Algorithms to Live By: The Computer Science of Human Decisions</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4639</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25666050-algorithms-to-live-by</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Automate the Boring Stuff with Python: Practical Programming for Total Beginners</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C34" t="n">
-        <v>431</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22514127-automate-the-boring-stuff-with-python</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>A Farewell to Mars: An Evangelical Pastor's Journey Toward the Biblical Gospel of Peace</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="C35" t="n">
-        <v>573</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18281678-a-farewell-to-mars</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>"I Give You My Body . . .": How I Write Sex Scenes</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C36" t="n">
-        <v>481</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/30719827-i-give-you-my-body</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Life Without Limits</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C37" t="n">
-        <v>4367</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/8639945-life-without-limits</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Utopia for Realists: Why Making the World a Better Place Isn't a Fantasy and How We Can Do It</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C38" t="n">
-        <v>707</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/32856013-utopia-for-realists</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Deep Work: Rules for Focused Success in a Distracted World</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C39" t="n">
-        <v>15605</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25744928-deep-work</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Friendship with God: An Uncommon Dialogue</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1715</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/48663.Friendship_with_God</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Tools of Titans</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>4.27</v>
-      </c>
-      <c r="C41" t="n">
-        <v>735</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/30820956-tools-of-titans</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>How to Have Confidence and Power in Dealing with People</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7005</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/320817.How_to_Have_Confidence_and_Power_in_Dealing_with_People</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>How Not to Die: Discover the Foods Scientifically Proven to Prevent and Reverse Disease</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4467</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/25663961-how-not-to-die</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Better: A Surgeon's Notes on Performance</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C44" t="n">
-        <v>17613</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/213233.Better</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Personality Plus: How to Understand Others by Understanding Yourself</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6418</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/319286.Personality_Plus</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>The Big Fat Surprise: Why Butter, Meat and Cheese Belong in a Healthy Diet</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2157</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/16130316-the-big-fat-surprise</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Eat Sweat Play: How Sport Can Change Our Lives</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C47" t="n">
-        <v>467</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/29324048-eat-sweat-play</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>The Upright Citizens Brigade Comedy Improvisation Manual</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C48" t="n">
-        <v>572</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/18144229-the-upright-citizens-brigade-comedy-improvisation-manual</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>The Healing of America: A Global Quest for Better, Cheaper, and Fairer Health Care</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4086</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6402544-the-healing-of-america</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>The Richest Man in Babylon</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="C50" t="n">
-        <v>52607</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/1052.The_Richest_Man_in_Babylon</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>If Grace Is True: Why God Will Save Every Person (Grace Series, #1)</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C51" t="n">
-        <v>956</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/111829.If_Grace_Is_True</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10790,6 +7432,1042 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Spellbound (Grimnoir Chronicles, #2)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7184</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/10822283-spellbound</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Wolf by Wolf (Wolf by Wolf, #1)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9710</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/24807186-wolf-by-wolf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Foundation / Foundation and Empire / Second Foundation / The Stars, Like Dust / The Naked Sun / I, Robot</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3316</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/278097.Foundation_Foundation_and_Empire_Second_Foundation_The_Stars_Like_Dust_The_Naked_Sun_I_Robot</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The Evolutionary Void</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C5" t="n">
+        <v>13729</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/7438179-the-evolutionary-void</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The Last Rhinos: My Battle to Save One of the World's Greatest Creatures</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1094</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/13167157-the-last-rhinos</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>The Deep: The Extraordinary Creatures of the Abyss</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C7" t="n">
+        <v>901</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/442668.The_Deep</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Leviathan Wakes (Expanse #1)</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1998</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/9533361-leviathan-wakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Hyperion Omnibus: Hyperion / The Fall of Hyperion</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2254</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/3943.The_Hyperion_Omnibus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Deep: Freediving, Renegade Science, and What the Ocean Tells Us about Ourselves</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18222705-deep</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Caliban's War (The Expanse, #2)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C11" t="n">
+        <v>41459</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/12591698-caliban-s-war</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Abyss Beyond Dreams</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4944</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/20697413-the-abyss-beyond-dreams</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Kings of the Wyld (The Band, #1)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2285</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/30841984-kings-of-the-wyld</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Spillover: Animal Infections and the Next Human Pandemic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2586</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/13637215-spillover</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The Ultimate Hitchhiker's Guide to the Galaxy</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C15" t="n">
+        <v>225626</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/13.The_Ultimate_Hitchhiker_s_Guide_to_the_Galaxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Star Wars #1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1109</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/24496462-star-wars-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>I, Robot (Robot #0.1)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>201196</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/41804.I_Robot</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>avg_rating</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>ratings_count</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>The Shock Doctrine: The Rise of Disaster Capitalism</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C2" t="n">
+        <v>664</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/2171147.The_Shock_Doctrine</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Autism's False Prophets: Bad Science, Risky Medicine, and the Search for a Cure</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>987</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/3360358-autism-s-false-prophets</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The (7L) The Seven Levels of Communication: Go From Relationships to Referrals</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="C4" t="n">
+        <v>482</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/9858250-the-7l-the-seven-levels-of-communication</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The Book on the Taboo Against Knowing Who You Are</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10108</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/60551.The_Book_on_the_Taboo_Against_Knowing_Who_You_Are</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>There Is No Good Card for This: What To Say and Do When Life Is Scary, Awful, and Unfair to People You Love</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>547</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/28257714-there-is-no-good-card-for-this</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Algorithms to Live By: The Computer Science of Human Decisions</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4639</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25666050-algorithms-to-live-by</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ready to Run: Unlocking Your Potential to Run Naturally</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="C8" t="n">
+        <v>772</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18668429-ready-to-run</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Power of Vulnerability: Teachings of Authenticity, Connections and Courage</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3778</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/23500254-the-power-of-vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Calm: Calm the Mind. Change the World</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>580</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25194140-calm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Impro</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1653</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/306940.Impro</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>The Healing of America: A Global Quest for Better, Cheaper, and Fairer Health Care</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4086</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/6402544-the-healing-of-america</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The Big Fat Surprise: Why Butter, Meat and Cheese Belong in a Healthy Diet</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2157</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/16130316-the-big-fat-surprise</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mountains Beyond Mountains: The Quest of Dr. Paul Farmer, A Man Who Would Cure the World</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C14" t="n">
+        <v>53936</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/10235.Mountains_Beyond_Mountains</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>The Hard Thing About Hard Things: Building a Business When There Are No Easy Answers</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20745</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18176747-the-hard-thing-about-hard-things</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Thinking in Systems: A Primer</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3011</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/3828902-thinking-in-systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>The Science of Interstellar</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2331</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/23261448-the-science-of-interstellar</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Radical Acceptance: Embracing Your Life With the Heart of a Buddha</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="C18" t="n">
+        <v>8593</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/173666.Radical_Acceptance</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>The Book of Joy: Lasting Happiness in a Changing World</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9067</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/29496453-the-book-of-joy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>How to Raise an Adult: Break Free of the Overparenting Trap and Prepare Your Kid for Success</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2892</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/23168823-how-to-raise-an-adult</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>High Output Management</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2883</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/324750.High_Output_Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Totto-chan: The Little Girl at the Window</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C22" t="n">
+        <v>14456</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/328802.Totto_chan</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Life Without Limits</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4367</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/8639945-life-without-limits</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>The Richest Man in Babylon</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>52607</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/1052.The_Richest_Man_in_Babylon</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>#AskGaryVee: One Entrepreneur's Take on Leadership, Social Media, and Self-Awareness</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1424</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25816851-askgaryvee</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The Power of a Praying Woman</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>9867</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18054709-the-power-of-a-praying-woman</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A Farewell to Mars: An Evangelical Pastor's Journey Toward the Biblical Gospel of Peace</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C27" t="n">
+        <v>573</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18281678-a-farewell-to-mars</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Gifted Hands: The Ben Carson Story</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C28" t="n">
+        <v>10082</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/18422.Gifted_Hands</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>The 15 Invaluable Laws of Growth: Live Them and Reach Your Potential</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/13529210-the-15-invaluable-laws-of-growth</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>No Death, No Fear</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/187636.No_Death_No_Fear</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Work Rules!: Insights from Inside Google That Will Transform How You Live and Lead</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4902</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/22875447-work-rules</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>You Are Special (Wemmicksville, #1)</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="C32" t="n">
+        <v>41780</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/56728.You_Are_Special</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Utopia for Realists: Why Making the World a Better Place Isn't a Fantasy and How We Can Do It</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C33" t="n">
+        <v>707</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/32856013-utopia-for-realists</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>"I Give You My Body . . .": How I Write Sex Scenes</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C34" t="n">
+        <v>481</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/30719827-i-give-you-my-body</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Today Matters: 12 Daily Practices to Guarantee Tomorrow's Success</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3513</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/389921.Today_Matters</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>House of Light</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1303</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/178965.House_of_Light</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Living with a SEAL: 31 Days Training with the Toughest Man on the Planet</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2183</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/25066990-living-with-a-seal</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>The Untethered Soul: The Journey Beyond Yourself</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15849</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.goodreads.com/book/show/1963638.The_Untethered_Soul</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="B1" s="11" t="inlineStr">
+        <is>
+          <t>avg_rating</t>
+        </is>
+      </c>
+      <c r="C1" s="11" t="inlineStr">
+        <is>
+          <t>ratings_count</t>
+        </is>
+      </c>
+      <c r="D1" s="11" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Incidences</t>
         </is>
       </c>
@@ -10826,250 +8504,88 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Peter and Alice</t>
+          <t>A Manual for Cleaning Women: Selected Stories</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.44</v>
+        <v>4.17</v>
       </c>
       <c r="C4" t="n">
-        <v>561</v>
+        <v>6863</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/17347724-peter-and-alice</t>
+          <t>https://www.goodreads.com/book/show/22929586-a-manual-for-cleaning-women</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absolute Pandemonium: My Louder Than Life Story</t>
+          <t>A Supposedly Fun Thing I'll Never Do Again:  Essays and Arguments</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.2</v>
+        <v>4.28</v>
       </c>
       <c r="C5" t="n">
-        <v>604</v>
+        <v>23746</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/26036990-absolute-pandemonium</t>
+          <t>https://www.goodreads.com/book/show/6748.A_Supposedly_Fun_Thing_I_ll_Never_Do_Again</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Essential Dykes to Watch Out For</t>
+          <t>Sherlock Holmes: The Complete Novels and Stories, Volume I</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.36</v>
+        <v>4.45</v>
       </c>
       <c r="C6" t="n">
-        <v>6979</v>
+        <v>18729</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/3189884-the-essential-dykes-to-watch-out-for</t>
+          <t>https://www.goodreads.com/book/show/3581.Sherlock_Holmes</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tales</t>
+          <t>The Essential Dykes to Watch Out For</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.37</v>
+        <v>4.36</v>
       </c>
       <c r="C7" t="n">
-        <v>2100</v>
+        <v>6979</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.goodreads.com/book/show/36313.Tales</t>
+          <t>https://www.goodreads.com/book/show/3189884-the-essential-dykes-to-watch-out-for</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A Supposedly Fun Thing I'll Never Do Again:  Essays and Arguments</t>
+          <t>Beautiful Outlaw: Experiencing the Playful, Disruptive, Extravagant Personality of Jesus</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.28</v>
+        <v>4.31</v>
       </c>
       <c r="C8" t="n">
-        <v>23746</v>
+        <v>2633</v>
       </c>
       <c r="D8" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/6748.A_Supposedly_Fun_Thing_I_ll_Never_Do_Again</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>The Faraway Nearby</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3409</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/16158561-the-faraway-nearby</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Ministry of Moral Panic</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="C10" t="n">
-        <v>557</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/17238889-ministry-of-moral-panic</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A Manual for Cleaning Women: Selected Stories</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6863</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/22929586-a-manual-for-cleaning-women</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sherlock Holmes: The Complete Novels and Stories, Volume I</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="C12" t="n">
-        <v>18729</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/3581.Sherlock_Holmes</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>The Exploits of Sherlock Holmes</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26933</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/76104.The_Exploits_of_Sherlock_Holmes</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Love's Executioner and Other Tales of Psychotherapy</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14376</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/21027.Love_s_Executioner_and_Other_Tales_of_Psychotherapy</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>The Last Wish (The Witcher, #1)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1610</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/11570030-the-last-wish</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>The Refrigerator Monologues</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C16" t="n">
-        <v>894</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.goodreads.com/book/show/32714267-the-refrigerator-monologues</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Beautiful Outlaw: Experiencing the Playful, Disruptive, Extravagant Personality of Jesus</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2633</v>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>https://www.goodreads.com/book/show/12079560-beautiful-outlaw</t>
         </is>
